--- a/Data Files/Test Data.xlsx
+++ b/Data Files/Test Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arcadier\git\Trillia\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3C55A6-229B-4368-87F8-89DA0396D4C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC7D8C3-86B2-41C9-B4E3-1A1E64610099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin Category" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="859">
   <si>
     <t>CategoryNametext</t>
   </si>
@@ -473,9 +473,6 @@
     <t>Delivery L</t>
   </si>
   <si>
-    <t>Pick Up</t>
-  </si>
-  <si>
     <t>Rufino Pacific Tower</t>
   </si>
   <si>
@@ -2571,6 +2568,51 @@
   </si>
   <si>
     <t>Date / Time picker</t>
+  </si>
+  <si>
+    <t>DeliveryMethod</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>pickup</t>
+  </si>
+  <si>
+    <t>DeliveryName</t>
+  </si>
+  <si>
+    <t>allcountries</t>
+  </si>
+  <si>
+    <t>multiplecountries</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>MinLeadtime</t>
+  </si>
+  <si>
+    <t>3 - 5 days</t>
+  </si>
+  <si>
+    <t>2 - 3 days</t>
+  </si>
+  <si>
+    <t>2 days</t>
+  </si>
+  <si>
+    <t>Delivery Maximum Ch@racters2!#</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>3 days</t>
   </si>
 </sst>
 </file>
@@ -2637,7 +2679,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2647,12 +2689,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2669,7 +2705,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2729,11 +2765,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2752,35 +2803,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2789,7 +2834,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2802,15 +2847,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3158,13 +3213,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3172,13 +3227,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3189,10 +3244,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3203,10 +3258,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3214,13 +3269,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C6" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D6" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3231,10 +3286,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3245,10 +3300,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D8" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3259,10 +3314,10 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3273,10 +3328,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D10" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3284,13 +3339,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D11" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3301,10 +3356,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D12" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3315,10 +3370,10 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D13" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3329,10 +3384,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D14" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3343,10 +3398,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D15" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3357,10 +3412,10 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D16" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3371,10 +3426,10 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D17" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3385,10 +3440,10 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D18" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3399,10 +3454,10 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D19" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3413,10 +3468,10 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D20" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3427,10 +3482,10 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D21" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3441,10 +3496,10 @@
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D22" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3455,10 +3510,10 @@
         <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D23" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3469,10 +3524,10 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D24" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3483,10 +3538,10 @@
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D25" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3497,10 +3552,10 @@
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D26" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3511,10 +3566,10 @@
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D27" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3525,10 +3580,10 @@
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D28" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3539,10 +3594,10 @@
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D29" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3553,10 +3608,10 @@
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D30" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3567,10 +3622,10 @@
         <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D31" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3578,13 +3633,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C32" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D32" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3595,10 +3650,10 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D33" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3609,10 +3664,10 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D34" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3623,10 +3678,10 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D35" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3637,10 +3692,10 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D36" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3651,10 +3706,10 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D37" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3665,10 +3720,10 @@
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D38" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3679,10 +3734,10 @@
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D39" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3693,10 +3748,10 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D40" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3707,10 +3762,10 @@
         <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D41" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3721,10 +3776,10 @@
         <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D42" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3735,10 +3790,10 @@
         <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D43" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3749,10 +3804,10 @@
         <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D44" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3763,10 +3818,10 @@
         <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D45" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3777,10 +3832,10 @@
         <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D46" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3791,10 +3846,10 @@
         <v>35</v>
       </c>
       <c r="C47" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D47" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3805,10 +3860,10 @@
         <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D48" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3819,10 +3874,10 @@
         <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D49" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3833,10 +3888,10 @@
         <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D50" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3847,10 +3902,10 @@
         <v>35</v>
       </c>
       <c r="C51" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D51" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3861,10 +3916,10 @@
         <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D52" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3875,10 +3930,10 @@
         <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D53" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -3889,10 +3944,10 @@
         <v>34</v>
       </c>
       <c r="C54" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D54" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3900,13 +3955,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C55" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D55" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -3917,10 +3972,10 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D56" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -3931,10 +3986,10 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D57" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -3945,10 +4000,10 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D58" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -3959,10 +4014,10 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D59" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -3973,10 +4028,10 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D60" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -3987,10 +4042,10 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D61" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -4001,10 +4056,10 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D62" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4015,10 +4070,10 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D63" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4026,13 +4081,13 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C64" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D64" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4040,13 +4095,13 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C65" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D65" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4054,13 +4109,13 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C66" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D66" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4068,13 +4123,13 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C67" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D67" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4082,13 +4137,13 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C68" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D68" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4096,13 +4151,13 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C69" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D69" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4110,13 +4165,13 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C70" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D70" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4124,13 +4179,13 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C71" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D71" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4138,13 +4193,13 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C72" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D72" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4152,13 +4207,13 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C73" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D73" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4166,13 +4221,13 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C74" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D74" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4180,13 +4235,13 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C75" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D75" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4194,13 +4249,13 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C76" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D76" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4208,13 +4263,13 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C77" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D77" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -4222,35 +4277,35 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
+        <v>721</v>
+      </c>
+      <c r="C78" t="s">
+        <v>823</v>
+      </c>
+      <c r="D78" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="21" t="s">
         <v>722</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
         <v>824</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D79" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="23" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="21" t="s">
         <v>723</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C80" t="s">
         <v>825</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D80" t="s">
         <v>802</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="23" t="s">
-        <v>724</v>
-      </c>
-      <c r="C80" t="s">
-        <v>826</v>
-      </c>
-      <c r="D80" t="s">
-        <v>803</v>
       </c>
     </row>
   </sheetData>
@@ -5129,1164 +5184,303 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FE6B43-687D-4690-9912-AB38F18F794C}">
-  <dimension ref="A1:AG31"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="46.7109375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" style="29" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="29" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>844</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>847</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="D1" s="29" t="s">
+        <v>850</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>845</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>848</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>20.75</v>
-      </c>
-      <c r="F2" s="3">
-        <v>15.25</v>
-      </c>
-      <c r="G2" s="3">
-        <v>20.76</v>
-      </c>
-      <c r="H2" s="3">
-        <v>40</v>
-      </c>
-      <c r="I2" s="3">
-        <v>30.25</v>
-      </c>
-      <c r="J2" s="3">
-        <v>40.01</v>
-      </c>
-      <c r="K2" s="3">
-        <v>60.75</v>
-      </c>
-      <c r="L2" s="3">
-        <v>45.25</v>
-      </c>
-      <c r="M2" s="3">
-        <v>60.76</v>
-      </c>
-      <c r="N2" s="3">
-        <v>80</v>
-      </c>
-      <c r="O2" s="3">
-        <v>60.25</v>
-      </c>
-      <c r="P2" s="3">
-        <v>80.099999999999994</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>100.75</v>
-      </c>
-      <c r="R2" s="3">
-        <v>75.25</v>
-      </c>
-      <c r="S2" s="3">
-        <v>100.76</v>
-      </c>
-      <c r="T2" s="3">
-        <v>120</v>
-      </c>
-      <c r="U2" s="3">
-        <v>90.25</v>
-      </c>
-      <c r="V2" s="3">
-        <v>120.01</v>
-      </c>
-      <c r="W2" s="3">
-        <v>140.75</v>
-      </c>
-      <c r="X2" s="3">
-        <v>105.25</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>140.76</v>
-      </c>
-      <c r="Z2" s="3">
-        <v>160</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>120.25</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>160.01</v>
-      </c>
-      <c r="AC2" s="3">
-        <v>180.75</v>
-      </c>
-      <c r="AD2" s="3">
-        <v>135.25</v>
-      </c>
-      <c r="AE2" s="3">
-        <v>180.76</v>
-      </c>
-      <c r="AF2" s="3">
-        <v>200</v>
-      </c>
-      <c r="AG2" s="3">
-        <v>150.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" s="3" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="E2" s="32" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>845</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>848</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F3" s="3">
-        <v>20.25</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1001</v>
-      </c>
-      <c r="H3" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I3" s="3">
-        <v>40.25</v>
-      </c>
-      <c r="J3" s="3">
-        <v>2001</v>
-      </c>
-      <c r="K3" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L3" s="3">
-        <v>60.25</v>
-      </c>
-      <c r="M3" s="3">
-        <v>3001</v>
-      </c>
-      <c r="N3" s="3">
-        <v>4000</v>
-      </c>
-      <c r="O3" s="3">
-        <v>80.25</v>
-      </c>
-      <c r="P3" s="3">
-        <v>4001</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>5000</v>
-      </c>
-      <c r="R3" s="3">
-        <v>100.25</v>
-      </c>
-      <c r="S3" s="3">
-        <v>5001</v>
-      </c>
-      <c r="T3" s="3">
-        <v>6000</v>
-      </c>
-      <c r="U3" s="3">
-        <v>120.25</v>
-      </c>
-      <c r="V3" s="3">
-        <v>6001</v>
-      </c>
-      <c r="W3" s="3">
-        <v>7000</v>
-      </c>
-      <c r="X3" s="3">
-        <v>140.25</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>7001</v>
-      </c>
-      <c r="Z3" s="3">
-        <v>8000</v>
-      </c>
-      <c r="AA3" s="3">
-        <v>160.25</v>
-      </c>
-      <c r="AB3" s="3">
-        <v>8001</v>
-      </c>
-      <c r="AC3" s="3">
-        <v>9000</v>
-      </c>
-      <c r="AD3" s="3">
-        <v>180.25</v>
-      </c>
-      <c r="AE3" s="3">
-        <v>9001</v>
-      </c>
-      <c r="AF3" s="3">
-        <v>10000</v>
-      </c>
-      <c r="AG3" s="3">
-        <v>200.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="E3" s="32" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>845</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>849</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>20.75</v>
-      </c>
-      <c r="F4" s="4">
-        <v>15.25</v>
-      </c>
-      <c r="G4" s="4">
-        <v>20.76</v>
-      </c>
-      <c r="H4" s="4">
-        <v>40</v>
-      </c>
-      <c r="I4" s="4">
-        <v>30.25</v>
-      </c>
-      <c r="J4" s="4">
-        <v>40.01</v>
-      </c>
-      <c r="K4" s="4">
-        <v>60.75</v>
-      </c>
-      <c r="L4" s="4">
-        <v>45.25</v>
-      </c>
-      <c r="M4" s="4">
-        <v>60.76</v>
-      </c>
-      <c r="N4" s="4">
-        <v>80</v>
-      </c>
-      <c r="O4" s="4">
-        <v>60.25</v>
-      </c>
-      <c r="P4" s="4">
-        <v>80.099999999999994</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>100.75</v>
-      </c>
-      <c r="R4" s="4">
-        <v>75.25</v>
-      </c>
-      <c r="S4" s="4">
-        <v>100.76</v>
-      </c>
-      <c r="T4" s="4">
-        <v>120</v>
-      </c>
-      <c r="U4" s="4">
-        <v>90.25</v>
-      </c>
-      <c r="V4" s="4">
-        <v>120.01</v>
-      </c>
-      <c r="W4" s="4">
-        <v>140.75</v>
-      </c>
-      <c r="X4" s="4">
-        <v>105.25</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>140.76</v>
-      </c>
-      <c r="Z4" s="4">
-        <v>160</v>
-      </c>
-      <c r="AA4" s="4">
-        <v>120.25</v>
-      </c>
-      <c r="AB4" s="4">
-        <v>160.01</v>
-      </c>
-      <c r="AC4" s="4">
-        <v>180.75</v>
-      </c>
-      <c r="AD4" s="4">
-        <v>135.25</v>
-      </c>
-      <c r="AE4" s="4">
-        <v>180.76</v>
-      </c>
-      <c r="AF4" s="4">
-        <v>200</v>
-      </c>
-      <c r="AG4" s="4">
-        <v>150.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="E4" s="32" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>845</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="32" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>845</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>848</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>845</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>848</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>845</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>849</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>845</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F5" s="3">
-        <v>20.25</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1001</v>
-      </c>
-      <c r="H5" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I5" s="3">
-        <v>40.25</v>
-      </c>
-      <c r="J5" s="3">
-        <v>2001</v>
-      </c>
-      <c r="K5" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L5" s="3">
-        <v>60.25</v>
-      </c>
-      <c r="M5" s="3">
-        <v>3001</v>
-      </c>
-      <c r="N5" s="3">
-        <v>4000</v>
-      </c>
-      <c r="O5" s="3">
-        <v>80.25</v>
-      </c>
-      <c r="P5" s="3">
-        <v>4001</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>5000</v>
-      </c>
-      <c r="R5" s="3">
-        <v>100.25</v>
-      </c>
-      <c r="S5" s="3">
-        <v>5001</v>
-      </c>
-      <c r="T5" s="3">
-        <v>6000</v>
-      </c>
-      <c r="U5" s="3">
-        <v>120.25</v>
-      </c>
-      <c r="V5" s="3">
-        <v>6001</v>
-      </c>
-      <c r="W5" s="3">
-        <v>7000</v>
-      </c>
-      <c r="X5" s="3">
-        <v>140.25</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>7001</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>8000</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>160.25</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>8001</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>9000</v>
-      </c>
-      <c r="AD5" s="3">
-        <v>180.25</v>
-      </c>
-      <c r="AE5" s="3">
-        <v>9001</v>
-      </c>
-      <c r="AF5" s="3">
-        <v>10000</v>
-      </c>
-      <c r="AG5" s="3">
-        <v>200.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="D9" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>845</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>848</v>
+      </c>
+      <c r="D10" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6" s="3">
-        <v>50</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="E10" s="32" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>845</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>848</v>
+      </c>
+      <c r="D11" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="E11" s="32" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>845</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>849</v>
+      </c>
+      <c r="D12" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="3">
-        <v>50</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F8" s="3">
-        <v>100.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="E12" s="32" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>845</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" s="3">
-        <v>150.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>20.75</v>
-      </c>
-      <c r="F10" s="3">
-        <v>30.25</v>
-      </c>
-      <c r="G10" s="3">
-        <v>20.76</v>
-      </c>
-      <c r="H10" s="3">
-        <v>40</v>
-      </c>
-      <c r="I10" s="3">
-        <v>60.25</v>
-      </c>
-      <c r="J10" s="3">
-        <v>40.01</v>
-      </c>
-      <c r="K10" s="3">
-        <v>60.75</v>
-      </c>
-      <c r="L10" s="3">
-        <v>90.25</v>
-      </c>
-      <c r="M10" s="3">
-        <v>60.76</v>
-      </c>
-      <c r="N10" s="3">
-        <v>80</v>
-      </c>
-      <c r="O10" s="3">
-        <v>120.25</v>
-      </c>
-      <c r="P10" s="3">
-        <v>80.010000000000005</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>100.75</v>
-      </c>
-      <c r="R10" s="3">
-        <v>150.25</v>
-      </c>
-      <c r="S10" s="3">
-        <v>100.76</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="U10" s="3">
-        <v>175.76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F11" s="3">
-        <v>30.25</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1001</v>
-      </c>
-      <c r="H11" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I11" s="3">
-        <v>60.25</v>
-      </c>
-      <c r="J11" s="3">
-        <v>2001</v>
-      </c>
-      <c r="K11" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L11" s="3">
-        <v>90.25</v>
-      </c>
-      <c r="M11" s="3">
-        <v>3001</v>
-      </c>
-      <c r="N11" s="3">
-        <v>4000</v>
-      </c>
-      <c r="O11" s="3">
-        <v>120.25</v>
-      </c>
-      <c r="P11" s="3">
-        <v>4001</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>5000</v>
-      </c>
-      <c r="R11" s="3">
-        <v>175.25</v>
-      </c>
-      <c r="S11" s="3">
-        <v>5001</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="U11" s="3">
-        <v>175.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>20.75</v>
-      </c>
-      <c r="F12" s="3">
-        <v>30.25</v>
-      </c>
-      <c r="G12" s="3">
-        <v>20.76</v>
-      </c>
-      <c r="H12" s="3">
-        <v>40</v>
-      </c>
-      <c r="I12" s="3">
-        <v>60.25</v>
-      </c>
-      <c r="J12" s="3">
-        <v>40.01</v>
-      </c>
-      <c r="K12" s="3">
-        <v>60.75</v>
-      </c>
-      <c r="L12" s="3">
-        <v>90.25</v>
-      </c>
-      <c r="M12" s="3">
-        <v>60.76</v>
-      </c>
-      <c r="N12" s="3">
-        <v>80</v>
-      </c>
-      <c r="O12" s="3">
-        <v>120.25</v>
-      </c>
-      <c r="P12" s="3">
-        <v>80.010000000000005</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>100.75</v>
-      </c>
-      <c r="R12" s="3">
-        <v>150.25</v>
-      </c>
-      <c r="S12" s="3">
-        <v>100.76</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="U12" s="3">
-        <v>175.76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F13" s="3">
-        <v>30.25</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1001</v>
-      </c>
-      <c r="H13" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I13" s="3">
-        <v>60.25</v>
-      </c>
-      <c r="J13" s="3">
-        <v>2001</v>
-      </c>
-      <c r="K13" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L13" s="3">
-        <v>90.25</v>
-      </c>
-      <c r="M13" s="3">
-        <v>3001</v>
-      </c>
-      <c r="N13" s="3">
-        <v>4000</v>
-      </c>
-      <c r="O13" s="3">
-        <v>120.25</v>
-      </c>
-      <c r="P13" s="3">
-        <v>4001</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>5000</v>
-      </c>
-      <c r="R13" s="3">
-        <v>175.25</v>
-      </c>
-      <c r="S13" s="3">
-        <v>5001</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="U13" s="3">
-        <v>175.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="E13" s="32" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>845</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>855</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>856</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>857</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>846</v>
+      </c>
+      <c r="B15" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+    </row>
+    <row r="16" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>846</v>
+      </c>
+      <c r="B16" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+    </row>
+    <row r="17" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>846</v>
+      </c>
+      <c r="B17" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-    </row>
-    <row r="22" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+    </row>
+    <row r="18" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>846</v>
+      </c>
+      <c r="B18" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-    </row>
-    <row r="23" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6313,23 +5507,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10"/>
-      <c r="B1" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="30"/>
+      <c r="A1" s="8"/>
+      <c r="B1" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="28"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
@@ -6345,48 +5539,48 @@
       <c r="AB1" s="2"/>
     </row>
     <row r="2" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="K2" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="L2" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="M2" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="O2" s="11" t="s">
         <v>161</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>162</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -6403,49 +5597,49 @@
       <c r="AB2" s="2"/>
     </row>
     <row r="3" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="20" t="s">
+        <v>669</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>670</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="N3" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="O3" s="11">
+        <v>169</v>
+      </c>
+      <c r="O3" s="9">
         <v>956425</v>
       </c>
       <c r="P3" s="2"/>
@@ -6463,49 +5657,49 @@
       <c r="AB3" s="2"/>
     </row>
     <row r="4" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="20" t="s">
+        <v>677</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G4" s="22" t="s">
-        <v>678</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="L4" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="N4" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="O4" s="11">
+        <v>169</v>
+      </c>
+      <c r="O4" s="9">
         <v>666656</v>
       </c>
       <c r="P4" s="2"/>
@@ -6523,47 +5717,47 @@
       <c r="AB4" s="2"/>
     </row>
     <row r="5" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>671</v>
+      <c r="G5" s="20" t="s">
+        <v>670</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="K5" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="O5" s="11">
+      <c r="O5" s="9">
         <v>5087</v>
       </c>
       <c r="P5" s="2"/>
@@ -6581,49 +5775,49 @@
       <c r="AB5" s="2"/>
     </row>
     <row r="6" spans="1:28" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="20" t="s">
+        <v>671</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G6" s="22" t="s">
-        <v>672</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="N6" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="O6" s="11">
+        <v>167</v>
+      </c>
+      <c r="O6" s="9">
         <v>4161</v>
       </c>
       <c r="P6" s="2"/>
@@ -6641,49 +5835,49 @@
       <c r="AB6" s="2"/>
     </row>
     <row r="7" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="20" t="s">
+        <v>672</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G7" s="22" t="s">
-        <v>673</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K7" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="K7" s="12" t="s">
+      <c r="L7" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="O7" s="11">
+      <c r="O7" s="9">
         <v>1300</v>
       </c>
       <c r="P7" s="2"/>
@@ -6701,49 +5895,49 @@
       <c r="AB7" s="2"/>
     </row>
     <row r="8" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G8" s="22" t="s">
-        <v>674</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="M8" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="O8" s="11">
+      <c r="O8" s="9">
         <v>1226</v>
       </c>
       <c r="P8" s="2"/>
@@ -6761,49 +5955,49 @@
       <c r="AB8" s="2"/>
     </row>
     <row r="9" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="20" t="s">
+        <v>674</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="G9" s="22" t="s">
-        <v>675</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="L9" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M9" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="O9" s="11">
+      <c r="O9" s="9">
         <v>1200</v>
       </c>
       <c r="P9" s="2"/>
@@ -6821,49 +6015,49 @@
       <c r="AB9" s="2"/>
     </row>
     <row r="10" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="20" t="s">
+        <v>675</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>676</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="L10" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M10" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="O10" s="11">
+      <c r="O10" s="9">
         <v>1227</v>
       </c>
       <c r="P10" s="2"/>
@@ -6881,49 +6075,49 @@
       <c r="AB10" s="2"/>
     </row>
     <row r="11" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="20" t="s">
+        <v>676</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="G11" s="22" t="s">
-        <v>677</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="L11" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M11" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="O11" s="11">
+      <c r="O11" s="9">
         <v>1229</v>
       </c>
       <c r="P11" s="2"/>
@@ -6941,49 +6135,49 @@
       <c r="AB11" s="2"/>
     </row>
     <row r="12" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="20" t="s">
+        <v>678</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G12" s="22" t="s">
-        <v>679</v>
-      </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="L12" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="M12" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="N12" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="O12" s="11">
+        <v>169</v>
+      </c>
+      <c r="O12" s="9">
         <v>600226</v>
       </c>
       <c r="P12" s="2"/>
@@ -7001,49 +6195,49 @@
       <c r="AB12" s="2"/>
     </row>
     <row r="13" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+      <c r="A13" s="9">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="20" t="s">
+        <v>679</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G13" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="L13" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="N13" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="O13" s="11">
+        <v>169</v>
+      </c>
+      <c r="O13" s="9">
         <v>856954</v>
       </c>
       <c r="P13" s="2"/>
@@ -7061,49 +6255,49 @@
       <c r="AB13" s="2"/>
     </row>
     <row r="14" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
+      <c r="A14" s="9">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="20" t="s">
+        <v>680</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="G14" s="22" t="s">
-        <v>681</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="L14" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="N14" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="O14" s="11">
+        <v>169</v>
+      </c>
+      <c r="O14" s="9">
         <v>544587</v>
       </c>
       <c r="P14" s="2"/>
@@ -7121,49 +6315,49 @@
       <c r="AB14" s="2"/>
     </row>
     <row r="15" spans="1:28" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
+      <c r="A15" s="9">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="20" t="s">
+        <v>681</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="G15" s="22" t="s">
-        <v>682</v>
-      </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="L15" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M15" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="O15" s="11">
+      <c r="O15" s="9">
         <v>1230</v>
       </c>
       <c r="P15" s="2"/>
@@ -7181,49 +6375,49 @@
       <c r="AB15" s="2"/>
     </row>
     <row r="16" spans="1:28" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
+      <c r="A16" s="9">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="20" t="s">
+        <v>682</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="G16" s="22" t="s">
-        <v>683</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="L16" s="2" t="s">
-        <v>267</v>
-      </c>
       <c r="M16" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N16" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="O16" s="11">
+      <c r="O16" s="9">
         <v>1011</v>
       </c>
       <c r="P16" s="2"/>
@@ -7241,49 +6435,49 @@
       <c r="AB16" s="2"/>
     </row>
     <row r="17" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
+      <c r="A17" s="9">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="20" t="s">
+        <v>683</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="G17" s="22" t="s">
-        <v>684</v>
-      </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>274</v>
-      </c>
       <c r="L17" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M17" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N17" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="O17" s="11">
+      <c r="O17" s="9">
         <v>1230</v>
       </c>
       <c r="P17" s="2"/>
@@ -7301,49 +6495,49 @@
       <c r="AB17" s="2"/>
     </row>
     <row r="18" spans="1:28" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
+      <c r="A18" s="9">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="20" t="s">
+        <v>684</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="G18" s="22" t="s">
-        <v>685</v>
-      </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>281</v>
-      </c>
       <c r="L18" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="M18" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="N18" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="O18" s="11">
+        <v>169</v>
+      </c>
+      <c r="O18" s="9">
         <v>468484</v>
       </c>
       <c r="P18" s="2"/>
@@ -7361,49 +6555,49 @@
       <c r="AB18" s="2"/>
     </row>
     <row r="19" spans="1:28" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
+      <c r="A19" s="9">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="20" t="s">
+        <v>685</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="G19" s="22" t="s">
-        <v>686</v>
-      </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="L19" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M19" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="M19" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="N19" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="O19" s="11">
+        <v>169</v>
+      </c>
+      <c r="O19" s="9">
         <v>546465</v>
       </c>
       <c r="P19" s="2"/>
@@ -7421,47 +6615,47 @@
       <c r="AB19" s="2"/>
     </row>
     <row r="20" spans="1:28" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
+      <c r="A20" s="9">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>687</v>
+      <c r="G20" s="20" t="s">
+        <v>686</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="K20" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L20" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="M20" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="N20" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="O20" s="11">
+        <v>169</v>
+      </c>
+      <c r="O20" s="9">
         <v>656656</v>
       </c>
       <c r="P20" s="2"/>
@@ -7479,47 +6673,47 @@
       <c r="AB20" s="2"/>
     </row>
     <row r="21" spans="1:28" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
+      <c r="A21" s="9">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>688</v>
+      <c r="G21" s="20" t="s">
+        <v>687</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J21" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="M21" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="M21" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="N21" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="O21" s="11">
+        <v>167</v>
+      </c>
+      <c r="O21" s="9">
         <v>11081</v>
       </c>
       <c r="P21" s="2"/>
@@ -7537,47 +6731,47 @@
       <c r="AB21" s="2"/>
     </row>
     <row r="22" spans="1:28" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
+      <c r="A22" s="9">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>689</v>
+      <c r="G22" s="20" t="s">
+        <v>688</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>307</v>
-      </c>
       <c r="K22" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="L22" s="2" t="s">
-        <v>310</v>
-      </c>
       <c r="M22" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="O22" s="11">
+        <v>167</v>
+      </c>
+      <c r="O22" s="9">
         <v>11191</v>
       </c>
       <c r="P22" s="2"/>
@@ -7595,47 +6789,47 @@
       <c r="AB22" s="2"/>
     </row>
     <row r="23" spans="1:28" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
+      <c r="A23" s="9">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>690</v>
+      <c r="G23" s="20" t="s">
+        <v>689</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>314</v>
-      </c>
       <c r="K23" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="M23" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="M23" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="N23" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="O23" s="11">
+        <v>167</v>
+      </c>
+      <c r="O23" s="9">
         <v>11101</v>
       </c>
       <c r="P23" s="2"/>
@@ -7653,47 +6847,47 @@
       <c r="AB23" s="2"/>
     </row>
     <row r="24" spans="1:28" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
+      <c r="A24" s="9">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>691</v>
+      <c r="G24" s="20" t="s">
+        <v>690</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="K24" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="M24" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="N24" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="O24" s="11">
+        <v>167</v>
+      </c>
+      <c r="O24" s="9">
         <v>11121</v>
       </c>
       <c r="P24" s="2"/>
@@ -7738,82 +6932,82 @@
     <col min="10" max="10" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="17" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:25" s="15" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>667</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>668</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>669</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
+        <v>713</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>714</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>715</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>716</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>717</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="16" t="s">
+        <v>720</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>719</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>718</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>721</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>720</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>719</v>
-      </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
     </row>
     <row r="2" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>692</v>
+      <c r="E2" s="20" t="s">
+        <v>691</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>303</v>
-      </c>
       <c r="I2" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="J2" s="20">
+        <v>167</v>
+      </c>
+      <c r="J2" s="18">
         <v>11081</v>
       </c>
       <c r="K2" s="6"/>
@@ -7834,33 +7028,33 @@
     </row>
     <row r="3" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>693</v>
+      <c r="E3" s="20" t="s">
+        <v>692</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>310</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="J3" s="20">
+        <v>167</v>
+      </c>
+      <c r="J3" s="18">
         <v>11191</v>
       </c>
       <c r="K3" s="6"/>
@@ -7881,33 +7075,33 @@
     </row>
     <row r="4" spans="1:25" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>694</v>
+      <c r="E4" s="20" t="s">
+        <v>693</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>318</v>
-      </c>
       <c r="I4" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="J4" s="20">
+        <v>167</v>
+      </c>
+      <c r="J4" s="18">
         <v>11101</v>
       </c>
       <c r="K4" s="6"/>
@@ -7928,33 +7122,33 @@
     </row>
     <row r="5" spans="1:25" s="5" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>695</v>
+      <c r="E5" s="20" t="s">
+        <v>694</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>326</v>
-      </c>
       <c r="I5" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="J5" s="20">
+        <v>167</v>
+      </c>
+      <c r="J5" s="18">
         <v>11121</v>
       </c>
       <c r="K5" s="6"/>
@@ -7975,33 +7169,33 @@
     </row>
     <row r="6" spans="1:25" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="20" t="s">
+        <v>695</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>696</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="I6" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="J6" s="20">
+        <v>167</v>
+      </c>
+      <c r="J6" s="18">
         <v>11221</v>
       </c>
       <c r="K6" s="6"/>
@@ -8022,33 +7216,33 @@
     </row>
     <row r="7" spans="1:25" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="20" t="s">
+        <v>696</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>697</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>356</v>
-      </c>
       <c r="I7" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="J7" s="20">
+        <v>167</v>
+      </c>
+      <c r="J7" s="18">
         <v>11221</v>
       </c>
       <c r="K7" s="6"/>
@@ -8069,33 +7263,33 @@
     </row>
     <row r="8" spans="1:25" s="5" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>698</v>
+      <c r="E8" s="20" t="s">
+        <v>697</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>194</v>
-      </c>
       <c r="I8" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="J8" s="20">
+        <v>167</v>
+      </c>
+      <c r="J8" s="18">
         <v>4161</v>
       </c>
       <c r="K8" s="6"/>
@@ -8116,33 +7310,33 @@
     </row>
     <row r="9" spans="1:25" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>699</v>
-      </c>
-      <c r="F9" s="21" t="s">
+      <c r="E9" s="20" t="s">
+        <v>698</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="J9" s="20">
+      <c r="J9" s="18">
         <v>1300</v>
       </c>
       <c r="K9" s="6"/>
@@ -8163,33 +7357,33 @@
     </row>
     <row r="10" spans="1:25" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>700</v>
+      <c r="E10" s="20" t="s">
+        <v>699</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>211</v>
-      </c>
       <c r="H10" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="J10" s="20">
+      <c r="J10" s="18">
         <v>1226</v>
       </c>
       <c r="K10" s="6"/>
@@ -8210,33 +7404,33 @@
     </row>
     <row r="11" spans="1:25" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>701</v>
+      <c r="E11" s="20" t="s">
+        <v>700</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H11" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="J11" s="20">
+      <c r="J11" s="18">
         <v>1200</v>
       </c>
       <c r="K11" s="6"/>
@@ -8257,33 +7451,33 @@
     </row>
     <row r="12" spans="1:25" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>702</v>
+      <c r="E12" s="20" t="s">
+        <v>701</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H12" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="J12" s="20">
+      <c r="J12" s="18">
         <v>1227</v>
       </c>
       <c r="K12" s="6"/>
@@ -8304,33 +7498,33 @@
     </row>
     <row r="13" spans="1:25" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>703</v>
+      <c r="E13" s="20" t="s">
+        <v>702</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H13" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="J13" s="20">
+      <c r="J13" s="18">
         <v>1229</v>
       </c>
       <c r="K13" s="6"/>
@@ -8351,33 +7545,33 @@
     </row>
     <row r="14" spans="1:25" s="5" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>704</v>
+      <c r="E14" s="20" t="s">
+        <v>703</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H14" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="J14" s="20">
+      <c r="J14" s="18">
         <v>1230</v>
       </c>
       <c r="K14" s="6"/>
@@ -8398,33 +7592,33 @@
     </row>
     <row r="15" spans="1:25" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>705</v>
+      <c r="E15" s="20" t="s">
+        <v>704</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>267</v>
-      </c>
       <c r="H15" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="J15" s="20">
+      <c r="J15" s="18">
         <v>1011</v>
       </c>
       <c r="K15" s="6"/>
@@ -8445,33 +7639,33 @@
     </row>
     <row r="16" spans="1:25" s="5" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>706</v>
+      <c r="E16" s="20" t="s">
+        <v>705</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H16" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="J16" s="20">
+      <c r="J16" s="18">
         <v>1230</v>
       </c>
       <c r="K16" s="6"/>
@@ -8492,33 +7686,33 @@
     </row>
     <row r="17" spans="1:25" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>707</v>
+      <c r="E17" s="20" t="s">
+        <v>706</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G17" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>171</v>
-      </c>
       <c r="I17" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="J17" s="20">
+        <v>169</v>
+      </c>
+      <c r="J17" s="18">
         <v>468484</v>
       </c>
       <c r="K17" s="6"/>
@@ -8539,33 +7733,33 @@
     </row>
     <row r="18" spans="1:25" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>708</v>
+      <c r="E18" s="20" t="s">
+        <v>707</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G18" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>171</v>
-      </c>
       <c r="I18" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="J18" s="20">
+        <v>169</v>
+      </c>
+      <c r="J18" s="18">
         <v>546465</v>
       </c>
       <c r="K18" s="6"/>
@@ -8586,33 +7780,33 @@
     </row>
     <row r="19" spans="1:25" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>709</v>
+      <c r="E19" s="20" t="s">
+        <v>708</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G19" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>171</v>
-      </c>
       <c r="I19" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="J19" s="20">
+        <v>169</v>
+      </c>
+      <c r="J19" s="18">
         <v>656656</v>
       </c>
       <c r="K19" s="6"/>
@@ -8633,33 +7827,33 @@
     </row>
     <row r="20" spans="1:25" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="E20" s="20" t="s">
+        <v>709</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="E20" s="22" t="s">
-        <v>710</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>409</v>
-      </c>
       <c r="G20" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>171</v>
-      </c>
       <c r="I20" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="J20" s="20">
+        <v>169</v>
+      </c>
+      <c r="J20" s="18">
         <v>121655</v>
       </c>
       <c r="K20" s="6"/>
@@ -8680,33 +7874,33 @@
     </row>
     <row r="21" spans="1:25" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>711</v>
+      <c r="E21" s="20" t="s">
+        <v>710</v>
       </c>
       <c r="F21" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="H21" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>171</v>
-      </c>
       <c r="I21" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="J21" s="20">
+        <v>169</v>
+      </c>
+      <c r="J21" s="18">
         <v>956425</v>
       </c>
       <c r="K21" s="6"/>
@@ -8727,33 +7921,33 @@
     </row>
     <row r="22" spans="1:25" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>712</v>
+      <c r="E22" s="20" t="s">
+        <v>711</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G22" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>171</v>
-      </c>
       <c r="I22" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="J22" s="20">
+        <v>169</v>
+      </c>
+      <c r="J22" s="18">
         <v>666656</v>
       </c>
       <c r="K22" s="6"/>
@@ -8774,33 +7968,33 @@
     </row>
     <row r="23" spans="1:25" s="5" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>713</v>
+      <c r="E23" s="20" t="s">
+        <v>712</v>
       </c>
       <c r="F23" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="I23" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="J23" s="20">
+      <c r="J23" s="18">
         <v>5087</v>
       </c>
       <c r="K23" s="6"/>
@@ -8844,53 +8038,53 @@
   <sheetData>
     <row r="2" spans="1:26" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>428</v>
-      </c>
       <c r="K2" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P2" s="6"/>
       <c r="Q2" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="R2" s="6" t="s">
         <v>80</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
@@ -8902,43 +8096,43 @@
     </row>
     <row r="3" spans="1:26" ht="39" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
@@ -8954,47 +8148,47 @@
     </row>
     <row r="4" spans="1:26" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P4" s="6"/>
-      <c r="Q4" s="14" t="s">
-        <v>430</v>
+      <c r="Q4" s="12" t="s">
+        <v>429</v>
       </c>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
@@ -9008,47 +8202,47 @@
     </row>
     <row r="5" spans="1:26" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P5" s="6"/>
-      <c r="Q5" s="15" t="s">
-        <v>443</v>
+      <c r="Q5" s="13" t="s">
+        <v>442</v>
       </c>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
@@ -9062,47 +8256,47 @@
     </row>
     <row r="6" spans="1:26" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P6" s="6"/>
-      <c r="Q6" s="15" t="s">
-        <v>448</v>
+      <c r="Q6" s="13" t="s">
+        <v>447</v>
       </c>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
@@ -9116,47 +8310,47 @@
     </row>
     <row r="7" spans="1:26" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P7" s="6"/>
-      <c r="Q7" s="15" t="s">
-        <v>453</v>
+      <c r="Q7" s="13" t="s">
+        <v>452</v>
       </c>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
@@ -9170,47 +8364,47 @@
     </row>
     <row r="8" spans="1:26" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P8" s="6"/>
-      <c r="Q8" s="15" t="s">
-        <v>458</v>
+      <c r="Q8" s="13" t="s">
+        <v>457</v>
       </c>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
@@ -9224,47 +8418,47 @@
     </row>
     <row r="9" spans="1:26" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="15" t="s">
-        <v>463</v>
+      <c r="Q9" s="13" t="s">
+        <v>462</v>
       </c>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
@@ -9278,47 +8472,47 @@
     </row>
     <row r="10" spans="1:26" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P10" s="6"/>
-      <c r="Q10" s="15" t="s">
-        <v>468</v>
+      <c r="Q10" s="13" t="s">
+        <v>467</v>
       </c>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
@@ -9332,47 +8526,47 @@
     </row>
     <row r="11" spans="1:26" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P11" s="6"/>
-      <c r="Q11" s="15" t="s">
-        <v>473</v>
+      <c r="Q11" s="13" t="s">
+        <v>472</v>
       </c>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
@@ -9386,47 +8580,47 @@
     </row>
     <row r="12" spans="1:26" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P12" s="6"/>
-      <c r="Q12" s="15" t="s">
-        <v>478</v>
+      <c r="Q12" s="13" t="s">
+        <v>477</v>
       </c>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
@@ -9440,47 +8634,47 @@
     </row>
     <row r="13" spans="1:26" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P13" s="6"/>
-      <c r="Q13" s="15" t="s">
-        <v>483</v>
+      <c r="Q13" s="13" t="s">
+        <v>482</v>
       </c>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
@@ -9494,47 +8688,47 @@
     </row>
     <row r="14" spans="1:26" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P14" s="6"/>
-      <c r="Q14" s="15" t="s">
-        <v>488</v>
+      <c r="Q14" s="13" t="s">
+        <v>487</v>
       </c>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
@@ -9548,43 +8742,43 @@
     </row>
     <row r="15" spans="1:26" ht="39" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
@@ -9600,43 +8794,43 @@
     </row>
     <row r="16" spans="1:26" ht="39" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N16" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
@@ -9652,43 +8846,43 @@
     </row>
     <row r="17" spans="1:26" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
@@ -9704,43 +8898,43 @@
     </row>
     <row r="18" spans="1:26" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
@@ -9811,35 +9005,35 @@
       <c r="Z20" s="6"/>
     </row>
     <row r="21" spans="1:26" ht="39" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>464</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>474</v>
+      <c r="A21" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>473</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="14" t="s">
-        <v>465</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>475</v>
+      <c r="E21" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>474</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="16" t="s">
-        <v>466</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>476</v>
+      <c r="I21" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>475</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="16" t="s">
-        <v>467</v>
-      </c>
-      <c r="N21" s="16" t="s">
-        <v>477</v>
+      <c r="M21" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>476</v>
       </c>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
@@ -9856,34 +9050,34 @@
     </row>
     <row r="22" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>505</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>506</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>508</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>509</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>510</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="N22" s="6" t="s">
         <v>511</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>512</v>
       </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -9900,34 +9094,34 @@
     </row>
     <row r="23" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>513</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>514</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>515</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>516</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="J23" s="6" t="s">
         <v>517</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>518</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="N23" s="6" t="s">
         <v>519</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>520</v>
       </c>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
@@ -9944,34 +9138,34 @@
     </row>
     <row r="24" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>521</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>522</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>523</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>524</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="J24" s="6" t="s">
         <v>525</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>526</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="N24" s="6" t="s">
         <v>527</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>528</v>
       </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
@@ -9988,34 +9182,34 @@
     </row>
     <row r="25" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>529</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>530</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>531</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>532</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="J25" s="6" t="s">
         <v>533</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>534</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="N25" s="6" t="s">
         <v>535</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>536</v>
       </c>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
@@ -10032,34 +9226,34 @@
     </row>
     <row r="26" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>537</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>538</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>539</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>540</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="J26" s="6" t="s">
         <v>541</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>542</v>
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="N26" s="6" t="s">
         <v>543</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>544</v>
       </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
@@ -10076,34 +9270,34 @@
     </row>
     <row r="27" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>545</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>546</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>547</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>548</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="J27" s="6" t="s">
         <v>549</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>550</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="N27" s="6" t="s">
         <v>551</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>552</v>
       </c>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
@@ -10120,34 +9314,34 @@
     </row>
     <row r="28" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>553</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>554</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>555</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>556</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="J28" s="6" t="s">
         <v>557</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>558</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="N28" s="6" t="s">
         <v>559</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>560</v>
       </c>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
@@ -10164,34 +9358,34 @@
     </row>
     <row r="29" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>561</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>562</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>563</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>564</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="J29" s="6" t="s">
         <v>565</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>566</v>
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="N29" s="6" t="s">
         <v>567</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>568</v>
       </c>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
@@ -10208,34 +9402,34 @@
     </row>
     <row r="30" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>569</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>570</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>571</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>572</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="J30" s="6" t="s">
         <v>573</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>574</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="N30" s="6" t="s">
         <v>575</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>576</v>
       </c>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
@@ -10252,34 +9446,34 @@
     </row>
     <row r="31" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>577</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>578</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>579</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>580</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="J31" s="6" t="s">
         <v>581</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>582</v>
       </c>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="N31" s="6" t="s">
         <v>583</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>584</v>
       </c>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
@@ -10323,35 +9517,35 @@
       <c r="Z32" s="6"/>
     </row>
     <row r="33" spans="1:26" ht="39" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
-        <v>469</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>479</v>
+      <c r="A33" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>478</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="14" t="s">
-        <v>470</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>480</v>
+      <c r="E33" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>479</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
-      <c r="I33" s="16" t="s">
-        <v>471</v>
-      </c>
-      <c r="J33" s="16" t="s">
-        <v>481</v>
+      <c r="I33" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>480</v>
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="N33" s="16" t="s">
-        <v>482</v>
+      <c r="M33" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="N33" s="14" t="s">
+        <v>481</v>
       </c>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
@@ -10368,34 +9562,34 @@
     </row>
     <row r="34" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>585</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>586</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>587</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>588</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="J34" s="6" t="s">
         <v>589</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>590</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="N34" s="6" t="s">
         <v>591</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>592</v>
       </c>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
@@ -10412,34 +9606,34 @@
     </row>
     <row r="35" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>593</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>594</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="J35" s="6" t="s">
         <v>596</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>597</v>
       </c>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="N35" s="6" t="s">
         <v>598</v>
-      </c>
-      <c r="N35" s="6" t="s">
-        <v>599</v>
       </c>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
@@ -10456,34 +9650,34 @@
     </row>
     <row r="36" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>600</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>601</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="J36" s="6" t="s">
         <v>603</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>604</v>
       </c>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="N36" s="6" t="s">
         <v>605</v>
-      </c>
-      <c r="N36" s="6" t="s">
-        <v>606</v>
       </c>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
@@ -10500,34 +9694,34 @@
     </row>
     <row r="37" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>607</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>608</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="J37" s="6" t="s">
         <v>610</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>611</v>
       </c>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="N37" s="6" t="s">
         <v>612</v>
-      </c>
-      <c r="N37" s="6" t="s">
-        <v>613</v>
       </c>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
@@ -10544,34 +9738,34 @@
     </row>
     <row r="38" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>614</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>615</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="J38" s="6" t="s">
         <v>617</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>618</v>
       </c>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="N38" s="6" t="s">
         <v>619</v>
-      </c>
-      <c r="N38" s="6" t="s">
-        <v>620</v>
       </c>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
@@ -10588,34 +9782,34 @@
     </row>
     <row r="39" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>621</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>622</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="J39" s="6" t="s">
         <v>624</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>625</v>
       </c>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="N39" s="6" t="s">
         <v>626</v>
-      </c>
-      <c r="N39" s="6" t="s">
-        <v>627</v>
       </c>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
@@ -10632,34 +9826,34 @@
     </row>
     <row r="40" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>628</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>629</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="J40" s="6" t="s">
         <v>631</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>632</v>
       </c>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="N40" s="6" t="s">
         <v>633</v>
-      </c>
-      <c r="N40" s="6" t="s">
-        <v>634</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
@@ -10676,34 +9870,34 @@
     </row>
     <row r="41" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>635</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>636</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="J41" s="6" t="s">
         <v>638</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>639</v>
       </c>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="N41" s="6" t="s">
         <v>640</v>
-      </c>
-      <c r="N41" s="6" t="s">
-        <v>641</v>
       </c>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
@@ -10720,34 +9914,34 @@
     </row>
     <row r="42" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>642</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>643</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="J42" s="6" t="s">
         <v>645</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>646</v>
       </c>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="N42" s="6" t="s">
         <v>647</v>
-      </c>
-      <c r="N42" s="6" t="s">
-        <v>648</v>
       </c>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
@@ -10764,34 +9958,34 @@
     </row>
     <row r="43" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>649</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>650</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="J43" s="6" t="s">
         <v>652</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>653</v>
       </c>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="N43" s="6" t="s">
         <v>654</v>
-      </c>
-      <c r="N43" s="6" t="s">
-        <v>655</v>
       </c>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
@@ -10922,7 +10116,7 @@
     </row>
     <row r="48" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -10953,7 +10147,7 @@
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -10983,7 +10177,7 @@
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -11013,7 +10207,7 @@
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -11043,7 +10237,7 @@
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -11073,7 +10267,7 @@
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -11103,7 +10297,7 @@
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -11133,7 +10327,7 @@
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -11163,7 +10357,7 @@
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="7" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -11193,7 +10387,7 @@
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -11223,7 +10417,7 @@
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -11253,7 +10447,7 @@
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -11289,8 +10483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110ACE19-8D0C-4E1C-9473-C64924AB9F81}">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11302,1011 +10496,1011 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
+        <v>826</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>829</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>827</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="D1" s="22" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>832</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>832</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>833</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>839</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>834</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>835</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>453</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>835</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>836</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>841</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>841</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>473</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>837</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>837</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>838</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>488</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>840</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>842</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>843</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>843</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>832</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>832</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>833</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>439</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>839</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>834</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>836</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>835</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>835</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>464</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>841</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>469</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>841</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>474</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>837</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>479</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>837</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>838</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>843</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>843</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>840</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>842</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>832</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>832</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>833</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>839</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>834</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>835</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>835</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>836</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>841</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>841</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>837</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>837</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>838</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>840</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="23" t="s">
+        <v>494</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>842</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>843</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>843</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>832</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>832</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>833</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>839</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>834</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>835</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>835</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>836</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>841</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>841</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>837</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>837</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="23" t="s">
+        <v>486</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>838</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>840</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>842</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="23" t="s">
+        <v>499</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>843</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="23" t="s">
+        <v>503</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>843</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="B70" s="23" t="s">
+        <v>841</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="25" t="s">
         <v>830</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>828</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="B71" s="23" t="s">
+        <v>832</v>
+      </c>
+      <c r="C71" s="23" t="s">
         <v>422</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>833</v>
-      </c>
-      <c r="C2" s="25" t="s">
+      <c r="D71" s="23" t="s">
         <v>423</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>431</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>833</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>435</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>834</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>439</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>840</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>444</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>835</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>449</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>836</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>454</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>836</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>459</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>837</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>464</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>842</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>469</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>842</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>474</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>838</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>479</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>838</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>484</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>839</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>489</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>841</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>493</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>843</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>497</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>844</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>501</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>844</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="25" t="s">
+        <v>831</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>832</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="D72" s="23" t="s">
         <v>425</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>833</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>432</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>833</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>436</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>834</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>440</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>840</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
-        <v>445</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>835</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
-        <v>450</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>837</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
-        <v>455</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>836</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
-        <v>460</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>836</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>465</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>842</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>470</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>842</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
-        <v>475</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>838</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
-        <v>480</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>838</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
-        <v>485</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>839</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
-        <v>490</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>844</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
-        <v>494</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>844</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
-        <v>498</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>841</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>843</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
-        <v>427</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>833</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
-        <v>433</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>833</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
-        <v>437</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>834</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
-        <v>441</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>840</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="25" t="s">
-        <v>446</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>835</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="25" t="s">
-        <v>451</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>836</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
-        <v>456</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>836</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>837</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
-        <v>466</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>842</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
-        <v>471</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>842</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="s">
-        <v>476</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>838</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
-        <v>481</v>
-      </c>
-      <c r="B47" s="25" t="s">
-        <v>838</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="25" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
-        <v>486</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>839</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
-        <v>491</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>841</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="25" t="s">
-        <v>495</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>843</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
-        <v>499</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>844</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
-        <v>503</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>844</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="25" t="s">
-        <v>429</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>833</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="25" t="s">
-        <v>434</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>833</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="25" t="s">
-        <v>438</v>
-      </c>
-      <c r="B55" s="25" t="s">
-        <v>834</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
-        <v>442</v>
-      </c>
-      <c r="B56" s="26" t="s">
-        <v>840</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="25" t="s">
-        <v>447</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>835</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="25" t="s">
-        <v>452</v>
-      </c>
-      <c r="B58" s="25" t="s">
-        <v>836</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="25" t="s">
-        <v>457</v>
-      </c>
-      <c r="B59" s="25" t="s">
-        <v>836</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="25" t="s">
-        <v>462</v>
-      </c>
-      <c r="B60" s="25" t="s">
-        <v>837</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="B61" s="25" t="s">
-        <v>842</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="25" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="25" t="s">
-        <v>472</v>
-      </c>
-      <c r="B62" s="25" t="s">
-        <v>842</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" s="25" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="25" t="s">
-        <v>477</v>
-      </c>
-      <c r="B63" s="25" t="s">
-        <v>838</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="25" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="25" t="s">
-        <v>482</v>
-      </c>
-      <c r="B64" s="25" t="s">
-        <v>838</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" s="25" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="25" t="s">
-        <v>487</v>
-      </c>
-      <c r="B65" s="25" t="s">
-        <v>839</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="25" t="s">
-        <v>492</v>
-      </c>
-      <c r="B66" s="25" t="s">
-        <v>841</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="25" t="s">
-        <v>496</v>
-      </c>
-      <c r="B67" s="25" t="s">
-        <v>843</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="25" t="s">
-        <v>500</v>
-      </c>
-      <c r="B68" s="25" t="s">
-        <v>844</v>
-      </c>
-      <c r="C68" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="25" t="s">
-        <v>504</v>
-      </c>
-      <c r="B69" s="25" t="s">
-        <v>844</v>
-      </c>
-      <c r="C69" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="25" t="s">
-        <v>430</v>
-      </c>
-      <c r="B70" s="25" t="s">
-        <v>842</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="D70" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="27" t="s">
-        <v>831</v>
-      </c>
-      <c r="B71" s="25" t="s">
-        <v>833</v>
-      </c>
-      <c r="C71" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="D71" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="27" t="s">
-        <v>832</v>
-      </c>
-      <c r="B72" s="25" t="s">
-        <v>833</v>
-      </c>
-      <c r="C72" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="D72" s="25" t="s">
-        <v>426</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Test Data.xlsx
+++ b/Data Files/Test Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arcadier\git\Trillia\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC7D8C3-86B2-41C9-B4E3-1A1E64610099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4EFC5E-05A5-4B31-A696-9A220394E65A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin Category" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Buyer Name" sheetId="5" r:id="rId5"/>
     <sheet name="Custom Fields" sheetId="6" r:id="rId6"/>
     <sheet name="AllCustomField" sheetId="7" r:id="rId7"/>
+    <sheet name="Item" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="959">
   <si>
     <t>CategoryNametext</t>
   </si>
@@ -2613,6 +2614,306 @@
   </si>
   <si>
     <t>3 days</t>
+  </si>
+  <si>
+    <t>ItemName</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Multiple Categories</t>
+  </si>
+  <si>
+    <t>All Categories</t>
+  </si>
+  <si>
+    <t>Single Category/Parent</t>
+  </si>
+  <si>
+    <t>Single Category/with Child</t>
+  </si>
+  <si>
+    <t>Single Category/with grandChild</t>
+  </si>
+  <si>
+    <t>PARENT</t>
+  </si>
+  <si>
+    <t>Item01</t>
+  </si>
+  <si>
+    <t>Item02</t>
+  </si>
+  <si>
+    <t>Item03</t>
+  </si>
+  <si>
+    <t>Item04</t>
+  </si>
+  <si>
+    <t>Item05</t>
+  </si>
+  <si>
+    <t>Item06</t>
+  </si>
+  <si>
+    <t>Item07</t>
+  </si>
+  <si>
+    <t>Item08</t>
+  </si>
+  <si>
+    <t>Item09</t>
+  </si>
+  <si>
+    <t>Item10</t>
+  </si>
+  <si>
+    <t>Item11</t>
+  </si>
+  <si>
+    <t>Item12</t>
+  </si>
+  <si>
+    <t>Item13</t>
+  </si>
+  <si>
+    <t>Item14</t>
+  </si>
+  <si>
+    <t>Item15</t>
+  </si>
+  <si>
+    <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
+  </si>
+  <si>
+    <t>Item18</t>
+  </si>
+  <si>
+    <t>Item19</t>
+  </si>
+  <si>
+    <t>Item20</t>
+  </si>
+  <si>
+    <t>Item21</t>
+  </si>
+  <si>
+    <t>Item22</t>
+  </si>
+  <si>
+    <t>Item23</t>
+  </si>
+  <si>
+    <t>Item24</t>
+  </si>
+  <si>
+    <t>Item25</t>
+  </si>
+  <si>
+    <t>Item26</t>
+  </si>
+  <si>
+    <t>Item27</t>
+  </si>
+  <si>
+    <t>Item28</t>
+  </si>
+  <si>
+    <t>Item29</t>
+  </si>
+  <si>
+    <t>Item30</t>
+  </si>
+  <si>
+    <t>Item31</t>
+  </si>
+  <si>
+    <t>Item32</t>
+  </si>
+  <si>
+    <t>Item33</t>
+  </si>
+  <si>
+    <t>Item34</t>
+  </si>
+  <si>
+    <t>Item35</t>
+  </si>
+  <si>
+    <t>Item36</t>
+  </si>
+  <si>
+    <t>Item37</t>
+  </si>
+  <si>
+    <t>Item38</t>
+  </si>
+  <si>
+    <t>Item39</t>
+  </si>
+  <si>
+    <t>Item40</t>
+  </si>
+  <si>
+    <t>Item41</t>
+  </si>
+  <si>
+    <t>Item42</t>
+  </si>
+  <si>
+    <t>Item43</t>
+  </si>
+  <si>
+    <t>Item44</t>
+  </si>
+  <si>
+    <t>Item45</t>
+  </si>
+  <si>
+    <t>Item46</t>
+  </si>
+  <si>
+    <t>Item47</t>
+  </si>
+  <si>
+    <t>Item48</t>
+  </si>
+  <si>
+    <t>Item49</t>
+  </si>
+  <si>
+    <t>Item50</t>
+  </si>
+  <si>
+    <t>Item51</t>
+  </si>
+  <si>
+    <t>Item52</t>
+  </si>
+  <si>
+    <t>Item53</t>
+  </si>
+  <si>
+    <t>Item54</t>
+  </si>
+  <si>
+    <t>Item55</t>
+  </si>
+  <si>
+    <t>Item56</t>
+  </si>
+  <si>
+    <t>Item57</t>
+  </si>
+  <si>
+    <t>Item58</t>
+  </si>
+  <si>
+    <t>Item59</t>
+  </si>
+  <si>
+    <t>Item60</t>
+  </si>
+  <si>
+    <t>Item61</t>
+  </si>
+  <si>
+    <t>Item62</t>
+  </si>
+  <si>
+    <t>Item63</t>
+  </si>
+  <si>
+    <t>Item64</t>
+  </si>
+  <si>
+    <t>Item65</t>
+  </si>
+  <si>
+    <t>Item66</t>
+  </si>
+  <si>
+    <t>Item67</t>
+  </si>
+  <si>
+    <t>Item68</t>
+  </si>
+  <si>
+    <t>Item69</t>
+  </si>
+  <si>
+    <t>Item70</t>
+  </si>
+  <si>
+    <t>Item71</t>
+  </si>
+  <si>
+    <t>Item72</t>
+  </si>
+  <si>
+    <t>Item73</t>
+  </si>
+  <si>
+    <t>Item74</t>
+  </si>
+  <si>
+    <t>Item75</t>
+  </si>
+  <si>
+    <t>Item76</t>
+  </si>
+  <si>
+    <t>Item77</t>
+  </si>
+  <si>
+    <t>ItemImage</t>
+  </si>
+  <si>
+    <t>Description01</t>
+  </si>
+  <si>
+    <t>Description02</t>
+  </si>
+  <si>
+    <t>Description03</t>
+  </si>
+  <si>
+    <t>Description04</t>
+  </si>
+  <si>
+    <t>Description05</t>
+  </si>
+  <si>
+    <t>Description06</t>
+  </si>
+  <si>
+    <t>Description07</t>
+  </si>
+  <si>
+    <t>Description08</t>
+  </si>
+  <si>
+    <t>Description09</t>
+  </si>
+  <si>
+    <t>DeliversTo</t>
+  </si>
+  <si>
+    <t>(PH,SG,MY)</t>
+  </si>
+  <si>
+    <t>All Countries (Multiple)</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>SKU</t>
   </si>
 </sst>
 </file>
@@ -2847,15 +3148,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2866,6 +3158,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5186,297 +5487,297 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FE6B43-687D-4690-9912-AB38F18F794C}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" style="29" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" style="29" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" style="29" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="29" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="29"/>
+    <col min="1" max="1" width="46.7109375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" style="26" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="26" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="26" t="s">
         <v>844</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="26" t="s">
         <v>847</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="26" t="s">
         <v>850</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="26" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="26" t="s">
         <v>845</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="26" t="s">
         <v>848</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="29" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="26" t="s">
         <v>845</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="26" t="s">
         <v>848</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="29" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="26" t="s">
         <v>845</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="26" t="s">
         <v>849</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="29" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="26" t="s">
         <v>845</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="29" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="26" t="s">
         <v>845</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="26" t="s">
         <v>848</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="29" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>845</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="26" t="s">
         <v>848</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="29" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="26" t="s">
         <v>845</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="26" t="s">
         <v>849</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="29" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="26" t="s">
         <v>845</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="29" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="26" t="s">
         <v>845</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="26" t="s">
         <v>848</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="29" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="26" t="s">
         <v>845</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="26" t="s">
         <v>848</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="29" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="26" t="s">
         <v>845</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="26" t="s">
         <v>849</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="29" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="26" t="s">
         <v>845</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="29" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="26" t="s">
         <v>845</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="29" t="s">
         <v>855</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="26" t="s">
         <v>856</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="29" t="s">
         <v>857</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="29" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
     </row>
     <row r="16" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
     </row>
     <row r="18" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5508,22 +5809,22 @@
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="28"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
@@ -10483,8 +10784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110ACE19-8D0C-4E1C-9473-C64924AB9F81}">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11507,4 +11808,1130 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B91D0B-7B52-4823-94CC-67BCDD6D5979}">
+  <dimension ref="A1:F80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B1" t="s">
+        <v>860</v>
+      </c>
+      <c r="C1" t="s">
+        <v>944</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>954</v>
+      </c>
+      <c r="F1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E80" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Data Files/Test Data.xlsx
+++ b/Data Files/Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arcadier\git\Trillia\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2BD8ED-5A2C-42D3-8AF1-0A6768E6A9C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB878271-8276-4BF7-8E68-DABD85BBF80A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2536" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2581" uniqueCount="1071">
   <si>
     <t>CategoryNametext</t>
   </si>
@@ -2913,9 +2913,6 @@
     <t>QTY</t>
   </si>
   <si>
-    <t>100, 30. 25</t>
-  </si>
-  <si>
     <t>Bulk Pricing</t>
   </si>
   <si>
@@ -3220,6 +3217,39 @@
   </si>
   <si>
     <t>CombiOnwards2</t>
+  </si>
+  <si>
+    <t>MOQCount</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item2.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item3.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item4.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item5.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item6.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item7.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item8.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item9.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item10.jpg</t>
   </si>
 </sst>
 </file>
@@ -12130,25 +12160,26 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337AF865-08E8-4C8C-A074-848D6C202917}">
-  <dimension ref="A1:M79"/>
+  <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="76.140625" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" customWidth="1"/>
     <col min="6" max="6" width="26.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>859</v>
       </c>
@@ -12170,26 +12201,29 @@
       <c r="G1" t="s">
         <v>857</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>956</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="J1" s="30" t="s">
         <v>957</v>
       </c>
-      <c r="J1" s="30" t="s">
-        <v>959</v>
-      </c>
       <c r="K1" s="30" t="s">
+        <v>958</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>1048</v>
+      </c>
+      <c r="M1" s="30" t="s">
         <v>1049</v>
       </c>
-      <c r="L1" s="30" t="s">
-        <v>1050</v>
-      </c>
-      <c r="M1" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>861</v>
       </c>
@@ -12197,40 +12231,41 @@
         <v>951</v>
       </c>
       <c r="C2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>939</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="G2" s="9">
         <v>14.25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>848</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>960</v>
-      </c>
+        <v>1061</v>
+      </c>
+      <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>848</v>
+        <v>1047</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1052</v>
+        <v>849</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1051</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>862</v>
       </c>
@@ -12238,7 +12273,7 @@
         <v>952</v>
       </c>
       <c r="C3" t="s">
-        <v>969</v>
+        <v>1062</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>940</v>
@@ -12247,29 +12282,32 @@
         <v>849</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="H3" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>1052</v>
-      </c>
       <c r="M3" s="2" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1051</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>863</v>
       </c>
@@ -12277,7 +12315,7 @@
         <v>953</v>
       </c>
       <c r="C4" t="s">
-        <v>969</v>
+        <v>1063</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>941</v>
@@ -12286,7 +12324,7 @@
         <v>848</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G4" s="9">
         <v>14</v>
@@ -12294,23 +12332,24 @@
       <c r="H4" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>1053</v>
-      </c>
       <c r="M4" s="2" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1052</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>864</v>
       </c>
@@ -12318,7 +12357,7 @@
         <v>954</v>
       </c>
       <c r="C5" t="s">
-        <v>969</v>
+        <v>1064</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>942</v>
@@ -12327,29 +12366,32 @@
         <v>127</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="G5" s="9">
         <v>17</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="H5" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1052</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>865</v>
       </c>
@@ -12357,7 +12399,7 @@
         <v>955</v>
       </c>
       <c r="C6" t="s">
-        <v>969</v>
+        <v>1065</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>943</v>
@@ -12366,29 +12408,32 @@
         <v>856</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="G6" s="9">
         <v>14.25</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="H6" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1053</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>866</v>
       </c>
@@ -12396,7 +12441,7 @@
         <v>951</v>
       </c>
       <c r="C7" t="s">
-        <v>969</v>
+        <v>1066</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>944</v>
@@ -12405,7 +12450,7 @@
         <v>848</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="G7" s="9">
         <v>14.25</v>
@@ -12413,23 +12458,24 @@
       <c r="H7" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K7" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>1054</v>
-      </c>
       <c r="M7" s="2" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1053</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>867</v>
       </c>
@@ -12437,7 +12483,7 @@
         <v>952</v>
       </c>
       <c r="C8" t="s">
-        <v>969</v>
+        <v>1067</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>945</v>
@@ -12446,29 +12492,32 @@
         <v>849</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="H8" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K8" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>1055</v>
-      </c>
       <c r="M8" s="2" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1054</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>868</v>
       </c>
@@ -12476,7 +12525,7 @@
         <v>953</v>
       </c>
       <c r="C9" t="s">
-        <v>969</v>
+        <v>1068</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>946</v>
@@ -12485,7 +12534,7 @@
         <v>848</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="G9" s="9">
         <v>14</v>
@@ -12493,23 +12542,24 @@
       <c r="H9" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K9" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>1055</v>
-      </c>
       <c r="M9" s="2" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1054</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>869</v>
       </c>
@@ -12517,7 +12567,7 @@
         <v>954</v>
       </c>
       <c r="C10" t="s">
-        <v>969</v>
+        <v>1069</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>947</v>
@@ -12526,29 +12576,32 @@
         <v>127</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="G10" s="9">
         <v>17</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="H10" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1055</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>870</v>
       </c>
@@ -12556,7 +12609,7 @@
         <v>955</v>
       </c>
       <c r="C11" t="s">
-        <v>969</v>
+        <v>1070</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>733</v>
@@ -12565,29 +12618,32 @@
         <v>856</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="G11" s="9">
         <v>14.25</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="H11" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1055</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>871</v>
       </c>
@@ -12595,7 +12651,7 @@
         <v>951</v>
       </c>
       <c r="C12" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>734</v>
@@ -12604,7 +12660,7 @@
         <v>848</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G12" s="9">
         <v>14.25</v>
@@ -12612,23 +12668,24 @@
       <c r="H12" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K12" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>1059</v>
-      </c>
       <c r="M12" s="2" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1058</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>872</v>
       </c>
@@ -12636,7 +12693,7 @@
         <v>952</v>
       </c>
       <c r="C13" t="s">
-        <v>969</v>
+        <v>1062</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>735</v>
@@ -12645,29 +12702,32 @@
         <v>849</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="H13" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K13" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>1060</v>
-      </c>
       <c r="M13" s="2" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1059</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>873</v>
       </c>
@@ -12675,7 +12735,7 @@
         <v>953</v>
       </c>
       <c r="C14" t="s">
-        <v>969</v>
+        <v>1063</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>736</v>
@@ -12684,7 +12744,7 @@
         <v>848</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="G14" s="9">
         <v>14</v>
@@ -12692,23 +12752,24 @@
       <c r="H14" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K14" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>1057</v>
-      </c>
       <c r="M14" s="2" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1056</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>874</v>
       </c>
@@ -12716,7 +12777,7 @@
         <v>954</v>
       </c>
       <c r="C15" t="s">
-        <v>969</v>
+        <v>1064</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>737</v>
@@ -12725,29 +12786,32 @@
         <v>127</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="G15" s="9">
         <v>17</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="H15" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1056</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>875</v>
       </c>
@@ -12755,7 +12819,7 @@
         <v>955</v>
       </c>
       <c r="C16" t="s">
-        <v>969</v>
+        <v>1065</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>738</v>
@@ -12764,29 +12828,32 @@
         <v>856</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="G16" s="9">
         <v>14.25</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="H16" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1057</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>876</v>
       </c>
@@ -12794,7 +12861,7 @@
         <v>951</v>
       </c>
       <c r="C17" t="s">
-        <v>969</v>
+        <v>1066</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>739</v>
@@ -12803,7 +12870,7 @@
         <v>848</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="G17" s="9">
         <v>14.25</v>
@@ -12811,23 +12878,24 @@
       <c r="H17" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="I17" s="2"/>
       <c r="J17" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K17" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="L17" s="2" t="s">
-        <v>1058</v>
-      </c>
       <c r="M17" s="2" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1057</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>877</v>
       </c>
@@ -12835,7 +12903,7 @@
         <v>952</v>
       </c>
       <c r="C18" t="s">
-        <v>969</v>
+        <v>1067</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>740</v>
@@ -12844,29 +12912,32 @@
         <v>849</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="H18" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K18" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>1059</v>
-      </c>
       <c r="M18" s="2" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1058</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>878</v>
       </c>
@@ -12874,7 +12945,7 @@
         <v>953</v>
       </c>
       <c r="C19" t="s">
-        <v>969</v>
+        <v>1068</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>741</v>
@@ -12883,7 +12954,7 @@
         <v>848</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="G19" s="9">
         <v>14</v>
@@ -12891,23 +12962,24 @@
       <c r="H19" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K19" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="L19" s="2" t="s">
-        <v>1060</v>
-      </c>
       <c r="M19" s="2" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1059</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>879</v>
       </c>
@@ -12915,7 +12987,7 @@
         <v>954</v>
       </c>
       <c r="C20" t="s">
-        <v>969</v>
+        <v>1069</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>742</v>
@@ -12924,31 +12996,34 @@
         <v>127</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="G20" s="9">
         <v>17</v>
       </c>
-      <c r="H20" s="31">
+      <c r="H20" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I20" s="31">
         <v>30</v>
       </c>
-      <c r="I20" s="9">
+      <c r="J20" s="9">
         <v>1000</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>1048</v>
-      </c>
       <c r="K20" s="2" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1056</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>880</v>
       </c>
@@ -12956,7 +13031,7 @@
         <v>955</v>
       </c>
       <c r="C21" t="s">
-        <v>969</v>
+        <v>1070</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>743</v>
@@ -12965,31 +13040,34 @@
         <v>856</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G21" s="9">
         <v>14.25</v>
       </c>
-      <c r="H21" s="31">
+      <c r="H21" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I21" s="31">
         <v>35</v>
       </c>
-      <c r="I21" s="9">
+      <c r="J21" s="9">
         <v>1000</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>1048</v>
-      </c>
       <c r="K21" s="2" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1056</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>881</v>
       </c>
@@ -12997,7 +13075,7 @@
         <v>951</v>
       </c>
       <c r="C22" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>744</v>
@@ -13006,7 +13084,7 @@
         <v>848</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="G22" s="9">
         <v>14.25</v>
@@ -13014,23 +13092,24 @@
       <c r="H22" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K22" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="L22" s="2" t="s">
-        <v>1058</v>
-      </c>
       <c r="M22" s="2" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1057</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>882</v>
       </c>
@@ -13038,7 +13117,7 @@
         <v>952</v>
       </c>
       <c r="C23" t="s">
-        <v>969</v>
+        <v>1062</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>745</v>
@@ -13047,31 +13126,34 @@
         <v>849</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="H23" s="31">
+      <c r="H23" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I23" s="31">
         <v>15</v>
       </c>
-      <c r="I23" s="9">
+      <c r="J23" s="9">
         <v>1000</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>1048</v>
-      </c>
       <c r="K23" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="L23" s="2" t="s">
-        <v>1058</v>
-      </c>
       <c r="M23" s="2" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1057</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>883</v>
       </c>
@@ -13079,7 +13161,7 @@
         <v>953</v>
       </c>
       <c r="C24" t="s">
-        <v>969</v>
+        <v>1063</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>746</v>
@@ -13088,7 +13170,7 @@
         <v>848</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G24" s="9">
         <v>14</v>
@@ -13096,23 +13178,24 @@
       <c r="H24" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K24" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="L24" s="2" t="s">
-        <v>1054</v>
-      </c>
       <c r="M24" s="2" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1053</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>884</v>
       </c>
@@ -13120,7 +13203,7 @@
         <v>954</v>
       </c>
       <c r="C25" t="s">
-        <v>969</v>
+        <v>1064</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>747</v>
@@ -13129,31 +13212,34 @@
         <v>127</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G25" s="9">
         <v>17</v>
       </c>
-      <c r="H25" s="31">
+      <c r="H25" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I25" s="31">
         <v>20</v>
       </c>
-      <c r="I25" s="9">
+      <c r="J25" s="9">
         <v>1000</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>1048</v>
-      </c>
       <c r="K25" s="2" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1053</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>885</v>
       </c>
@@ -13161,7 +13247,7 @@
         <v>955</v>
       </c>
       <c r="C26" t="s">
-        <v>969</v>
+        <v>1065</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>748</v>
@@ -13170,31 +13256,34 @@
         <v>856</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G26" s="9">
         <v>14.25</v>
       </c>
-      <c r="H26" s="31">
+      <c r="H26" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I26" s="31">
         <v>35</v>
       </c>
-      <c r="I26" s="9">
+      <c r="J26" s="9">
         <v>1000</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>1048</v>
-      </c>
       <c r="K26" s="2" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1054</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>886</v>
       </c>
@@ -13202,7 +13291,7 @@
         <v>951</v>
       </c>
       <c r="C27" t="s">
-        <v>969</v>
+        <v>1066</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>749</v>
@@ -13211,7 +13300,7 @@
         <v>848</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="G27" s="9">
         <v>14.25</v>
@@ -13219,23 +13308,24 @@
       <c r="H27" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K27" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="L27" s="2" t="s">
-        <v>1055</v>
-      </c>
       <c r="M27" s="2" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1054</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>887</v>
       </c>
@@ -13243,7 +13333,7 @@
         <v>952</v>
       </c>
       <c r="C28" t="s">
-        <v>969</v>
+        <v>1067</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>750</v>
@@ -13252,31 +13342,34 @@
         <v>849</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="H28" s="31">
+      <c r="H28" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I28" s="31">
         <v>35</v>
       </c>
-      <c r="I28" s="9">
+      <c r="J28" s="9">
         <v>1000</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>1048</v>
-      </c>
       <c r="K28" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L28" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="L28" s="2" t="s">
-        <v>1056</v>
-      </c>
       <c r="M28" s="2" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1055</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>888</v>
       </c>
@@ -13284,7 +13377,7 @@
         <v>953</v>
       </c>
       <c r="C29" t="s">
-        <v>969</v>
+        <v>1068</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>751</v>
@@ -13293,7 +13386,7 @@
         <v>848</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G29" s="9">
         <v>14</v>
@@ -13301,23 +13394,24 @@
       <c r="H29" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K29" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="L29" s="2" t="s">
-        <v>1056</v>
-      </c>
       <c r="M29" s="2" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1055</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>889</v>
       </c>
@@ -13325,7 +13419,7 @@
         <v>954</v>
       </c>
       <c r="C30" t="s">
-        <v>969</v>
+        <v>1069</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>752</v>
@@ -13334,31 +13428,34 @@
         <v>127</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G30" s="9">
         <v>17</v>
       </c>
-      <c r="H30" s="31">
+      <c r="H30" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I30" s="31">
         <v>15</v>
       </c>
-      <c r="I30" s="9">
+      <c r="J30" s="9">
         <v>1000</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>1048</v>
-      </c>
       <c r="K30" s="2" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>1059</v>
+        <v>1050</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1058</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>890</v>
       </c>
@@ -13366,7 +13463,7 @@
         <v>955</v>
       </c>
       <c r="C31" t="s">
-        <v>969</v>
+        <v>1070</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>753</v>
@@ -13375,31 +13472,34 @@
         <v>856</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="G31" s="9">
         <v>14.25</v>
       </c>
-      <c r="H31" s="31">
+      <c r="H31" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I31" s="31">
         <v>20</v>
       </c>
-      <c r="I31" s="9">
+      <c r="J31" s="9">
         <v>1000</v>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>1048</v>
-      </c>
       <c r="K31" s="2" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1059</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>891</v>
       </c>
@@ -13407,7 +13507,7 @@
         <v>951</v>
       </c>
       <c r="C32" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>754</v>
@@ -13416,7 +13516,7 @@
         <v>848</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="G32" s="9">
         <v>14.25</v>
@@ -13424,23 +13524,24 @@
       <c r="H32" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="I32" s="2"/>
       <c r="J32" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K32" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L32" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="L32" s="2" t="s">
-        <v>1057</v>
-      </c>
       <c r="M32" s="2" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1056</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>892</v>
       </c>
@@ -13448,7 +13549,7 @@
         <v>952</v>
       </c>
       <c r="C33" t="s">
-        <v>969</v>
+        <v>1062</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>755</v>
@@ -13457,31 +13558,34 @@
         <v>849</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="H33" s="31">
+      <c r="H33" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I33" s="31">
         <v>35</v>
       </c>
-      <c r="I33" s="9">
+      <c r="J33" s="9">
         <v>1000</v>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>1048</v>
-      </c>
       <c r="K33" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L33" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="L33" s="2" t="s">
-        <v>1057</v>
-      </c>
       <c r="M33" s="2" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1056</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>893</v>
       </c>
@@ -13489,7 +13593,7 @@
         <v>953</v>
       </c>
       <c r="C34" t="s">
-        <v>969</v>
+        <v>1063</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>756</v>
@@ -13498,7 +13602,7 @@
         <v>848</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="G34" s="9">
         <v>14</v>
@@ -13506,23 +13610,24 @@
       <c r="H34" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="I34" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="I34" s="2"/>
       <c r="J34" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K34" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L34" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="L34" s="2" t="s">
-        <v>1058</v>
-      </c>
       <c r="M34" s="2" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1057</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>894</v>
       </c>
@@ -13530,7 +13635,7 @@
         <v>954</v>
       </c>
       <c r="C35" t="s">
-        <v>969</v>
+        <v>1064</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>757</v>
@@ -13539,31 +13644,34 @@
         <v>127</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="G35" s="9">
         <v>17</v>
       </c>
-      <c r="H35" s="31">
+      <c r="H35" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I35" s="31">
         <v>35</v>
       </c>
-      <c r="I35" s="9">
+      <c r="J35" s="9">
         <v>1000</v>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>1048</v>
-      </c>
       <c r="K35" s="2" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1057</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>895</v>
       </c>
@@ -13571,7 +13679,7 @@
         <v>955</v>
       </c>
       <c r="C36" t="s">
-        <v>969</v>
+        <v>1065</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>758</v>
@@ -13580,31 +13688,34 @@
         <v>856</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G36" s="9">
         <v>14.25</v>
       </c>
-      <c r="H36" s="31">
+      <c r="H36" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I36" s="31">
         <v>60</v>
       </c>
-      <c r="I36" s="9">
+      <c r="J36" s="9">
         <v>1000</v>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>1048</v>
-      </c>
       <c r="K36" s="2" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>1059</v>
+        <v>1050</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1058</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>896</v>
       </c>
@@ -13612,7 +13723,7 @@
         <v>951</v>
       </c>
       <c r="C37" t="s">
-        <v>969</v>
+        <v>1066</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>759</v>
@@ -13621,7 +13732,7 @@
         <v>848</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="G37" s="9">
         <v>14.25</v>
@@ -13629,23 +13740,24 @@
       <c r="H37" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="I37" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K37" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L37" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="L37" s="2" t="s">
-        <v>1060</v>
-      </c>
       <c r="M37" s="2" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1059</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>897</v>
       </c>
@@ -13653,7 +13765,7 @@
         <v>952</v>
       </c>
       <c r="C38" t="s">
-        <v>969</v>
+        <v>1067</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>760</v>
@@ -13662,27 +13774,30 @@
         <v>849</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2">
+      <c r="H38" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2">
         <v>0</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>1048</v>
-      </c>
       <c r="K38" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L38" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>1057</v>
-      </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M38" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>898</v>
       </c>
@@ -13690,7 +13805,7 @@
         <v>953</v>
       </c>
       <c r="C39" t="s">
-        <v>969</v>
+        <v>1068</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>761</v>
@@ -13699,7 +13814,7 @@
         <v>848</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G39" s="9">
         <v>14</v>
@@ -13707,21 +13822,22 @@
       <c r="H39" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="2"/>
+      <c r="J39" s="2">
         <v>0</v>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>1048</v>
-      </c>
       <c r="K39" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L39" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="L39" s="2" t="s">
-        <v>1057</v>
-      </c>
-      <c r="M39" s="2"/>
-    </row>
-    <row r="40" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M39" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>899</v>
       </c>
@@ -13729,7 +13845,7 @@
         <v>954</v>
       </c>
       <c r="C40" t="s">
-        <v>969</v>
+        <v>1069</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>762</v>
@@ -13738,27 +13854,30 @@
         <v>127</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G40" s="9">
         <v>17</v>
       </c>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2">
+      <c r="H40" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2">
         <v>0</v>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>1048</v>
-      </c>
       <c r="K40" s="2" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="M40" s="2"/>
-    </row>
-    <row r="41" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1050</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>900</v>
       </c>
@@ -13766,7 +13885,7 @@
         <v>955</v>
       </c>
       <c r="C41" t="s">
-        <v>969</v>
+        <v>1070</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>763</v>
@@ -13775,27 +13894,30 @@
         <v>856</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G41" s="9">
         <v>14.25</v>
       </c>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2">
+      <c r="H41" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2">
         <v>0</v>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>1048</v>
-      </c>
       <c r="K41" s="2" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="M41" s="2"/>
-    </row>
-    <row r="42" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1050</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>901</v>
       </c>
@@ -13803,7 +13925,7 @@
         <v>951</v>
       </c>
       <c r="C42" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>764</v>
@@ -13812,7 +13934,7 @@
         <v>848</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="G42" s="9">
         <v>14.25</v>
@@ -13820,21 +13942,22 @@
       <c r="H42" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="I42" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K42" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L42" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="L42" s="2" t="s">
-        <v>1054</v>
-      </c>
-      <c r="M42" s="2"/>
-    </row>
-    <row r="43" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M42" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>902</v>
       </c>
@@ -13842,7 +13965,7 @@
         <v>952</v>
       </c>
       <c r="C43" t="s">
-        <v>969</v>
+        <v>1062</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>765</v>
@@ -13851,27 +13974,30 @@
         <v>849</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2">
+      <c r="H43" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2">
         <v>0</v>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>1048</v>
-      </c>
       <c r="K43" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L43" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="L43" s="2" t="s">
-        <v>1054</v>
-      </c>
-      <c r="M43" s="2"/>
-    </row>
-    <row r="44" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M43" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="N43" s="2"/>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>903</v>
       </c>
@@ -13879,7 +14005,7 @@
         <v>953</v>
       </c>
       <c r="C44" t="s">
-        <v>969</v>
+        <v>1063</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>766</v>
@@ -13888,7 +14014,7 @@
         <v>848</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="G44" s="9">
         <v>14</v>
@@ -13896,21 +14022,22 @@
       <c r="H44" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="I44" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="I44" s="2"/>
       <c r="J44" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K44" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L44" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="L44" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="M44" s="2"/>
-    </row>
-    <row r="45" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M44" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="N44" s="2"/>
+    </row>
+    <row r="45" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>904</v>
       </c>
@@ -13918,7 +14045,7 @@
         <v>954</v>
       </c>
       <c r="C45" t="s">
-        <v>969</v>
+        <v>1064</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>767</v>
@@ -13927,27 +14054,30 @@
         <v>127</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="G45" s="9">
         <v>17</v>
       </c>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2">
+      <c r="H45" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2">
         <v>0</v>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>1048</v>
-      </c>
       <c r="K45" s="2" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="M45" s="2"/>
-    </row>
-    <row r="46" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1050</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="N45" s="2"/>
+    </row>
+    <row r="46" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>905</v>
       </c>
@@ -13955,7 +14085,7 @@
         <v>955</v>
       </c>
       <c r="C46" t="s">
-        <v>969</v>
+        <v>1065</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>768</v>
@@ -13964,27 +14094,30 @@
         <v>856</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="G46" s="9">
         <v>14.25</v>
       </c>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2">
+      <c r="H46" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2">
         <v>0</v>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>1048</v>
-      </c>
       <c r="K46" s="2" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="M46" s="2"/>
-    </row>
-    <row r="47" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1050</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="N46" s="2"/>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>906</v>
       </c>
@@ -13992,7 +14125,7 @@
         <v>951</v>
       </c>
       <c r="C47" t="s">
-        <v>969</v>
+        <v>1066</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>769</v>
@@ -14001,7 +14134,7 @@
         <v>848</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="G47" s="9">
         <v>14.25</v>
@@ -14009,21 +14142,22 @@
       <c r="H47" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="I47" s="2"/>
       <c r="J47" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K47" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L47" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="L47" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="M47" s="2"/>
-    </row>
-    <row r="48" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M47" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="N47" s="2"/>
+    </row>
+    <row r="48" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>907</v>
       </c>
@@ -14031,7 +14165,7 @@
         <v>952</v>
       </c>
       <c r="C48" t="s">
-        <v>969</v>
+        <v>1067</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>770</v>
@@ -14040,27 +14174,30 @@
         <v>849</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2">
+      <c r="H48" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2">
         <v>0</v>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>1048</v>
-      </c>
       <c r="K48" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L48" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="L48" s="2" t="s">
-        <v>1059</v>
-      </c>
-      <c r="M48" s="2"/>
-    </row>
-    <row r="49" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M48" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="N48" s="2"/>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>908</v>
       </c>
@@ -14068,7 +14205,7 @@
         <v>953</v>
       </c>
       <c r="C49" t="s">
-        <v>969</v>
+        <v>1068</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>771</v>
@@ -14077,7 +14214,7 @@
         <v>848</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="G49" s="9">
         <v>14</v>
@@ -14085,21 +14222,22 @@
       <c r="H49" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="I49" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="I49" s="2"/>
       <c r="J49" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K49" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L49" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="L49" s="2" t="s">
-        <v>1060</v>
-      </c>
-      <c r="M49" s="2"/>
-    </row>
-    <row r="50" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M49" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N49" s="2"/>
+    </row>
+    <row r="50" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>909</v>
       </c>
@@ -14107,7 +14245,7 @@
         <v>954</v>
       </c>
       <c r="C50" t="s">
-        <v>969</v>
+        <v>1069</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>772</v>
@@ -14116,27 +14254,30 @@
         <v>127</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="G50" s="9">
         <v>17</v>
       </c>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2">
+      <c r="H50" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2">
         <v>0</v>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>1048</v>
-      </c>
       <c r="K50" s="2" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>1057</v>
-      </c>
-      <c r="M50" s="2"/>
-    </row>
-    <row r="51" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1050</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="N50" s="2"/>
+    </row>
+    <row r="51" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>910</v>
       </c>
@@ -14144,7 +14285,7 @@
         <v>955</v>
       </c>
       <c r="C51" t="s">
-        <v>969</v>
+        <v>1070</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>773</v>
@@ -14153,27 +14294,30 @@
         <v>856</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="G51" s="9">
         <v>14.25</v>
       </c>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2">
+      <c r="H51" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2">
         <v>0</v>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>1048</v>
-      </c>
       <c r="K51" s="2" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>1057</v>
-      </c>
-      <c r="M51" s="2"/>
-    </row>
-    <row r="52" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1050</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="N51" s="2"/>
+    </row>
+    <row r="52" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>911</v>
       </c>
@@ -14181,7 +14325,7 @@
         <v>951</v>
       </c>
       <c r="C52" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>774</v>
@@ -14190,7 +14334,7 @@
         <v>848</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="G52" s="9">
         <v>14.25</v>
@@ -14198,21 +14342,22 @@
       <c r="H52" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="I52" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="I52" s="2"/>
       <c r="J52" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K52" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L52" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="L52" s="2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="M52" s="2"/>
-    </row>
-    <row r="53" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M52" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="N52" s="2"/>
+    </row>
+    <row r="53" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>912</v>
       </c>
@@ -14220,7 +14365,7 @@
         <v>952</v>
       </c>
       <c r="C53" t="s">
-        <v>969</v>
+        <v>1062</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>775</v>
@@ -14229,27 +14374,30 @@
         <v>849</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2">
+      <c r="H53" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2">
         <v>0</v>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>1048</v>
-      </c>
       <c r="K53" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L53" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="L53" s="2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="M53" s="2"/>
-    </row>
-    <row r="54" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M53" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="N53" s="2"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>913</v>
       </c>
@@ -14257,7 +14405,7 @@
         <v>953</v>
       </c>
       <c r="C54" t="s">
-        <v>969</v>
+        <v>1063</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>776</v>
@@ -14266,7 +14414,7 @@
         <v>848</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="G54" s="9">
         <v>14</v>
@@ -14274,21 +14422,22 @@
       <c r="H54" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="I54" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="I54" s="2"/>
       <c r="J54" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K54" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L54" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="L54" s="2" t="s">
-        <v>1059</v>
-      </c>
-      <c r="M54" s="2"/>
-    </row>
-    <row r="55" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M54" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="N54" s="2"/>
+    </row>
+    <row r="55" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>914</v>
       </c>
@@ -14296,7 +14445,7 @@
         <v>954</v>
       </c>
       <c r="C55" t="s">
-        <v>969</v>
+        <v>1064</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>777</v>
@@ -14305,27 +14454,30 @@
         <v>127</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G55" s="9">
         <v>17</v>
       </c>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2">
+      <c r="H55" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2">
         <v>0</v>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>1048</v>
-      </c>
       <c r="K55" s="2" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>1060</v>
-      </c>
-      <c r="M55" s="2"/>
-    </row>
-    <row r="56" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1050</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N55" s="2"/>
+    </row>
+    <row r="56" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>915</v>
       </c>
@@ -14333,7 +14485,7 @@
         <v>955</v>
       </c>
       <c r="C56" t="s">
-        <v>969</v>
+        <v>1065</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>778</v>
@@ -14342,29 +14494,32 @@
         <v>856</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G56" s="9">
         <v>14.25</v>
       </c>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="H56" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I56" s="2"/>
       <c r="J56" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1056</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>916</v>
       </c>
@@ -14372,7 +14527,7 @@
         <v>951</v>
       </c>
       <c r="C57" t="s">
-        <v>969</v>
+        <v>1066</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>779</v>
@@ -14381,7 +14536,7 @@
         <v>848</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G57" s="9">
         <v>14.25</v>
@@ -14389,23 +14544,24 @@
       <c r="H57" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="I57" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="I57" s="2"/>
       <c r="J57" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K57" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L57" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="L57" s="2" t="s">
-        <v>1057</v>
-      </c>
       <c r="M57" s="2" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1056</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>917</v>
       </c>
@@ -14413,7 +14569,7 @@
         <v>952</v>
       </c>
       <c r="C58" t="s">
-        <v>969</v>
+        <v>1067</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>780</v>
@@ -14422,31 +14578,32 @@
         <v>849</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="H58" s="30" t="s">
-        <v>958</v>
-      </c>
-      <c r="I58" s="2" t="s">
+      <c r="H58" s="2" t="s">
         <v>849</v>
       </c>
+      <c r="I58" s="30"/>
       <c r="J58" s="2" t="s">
-        <v>1048</v>
+        <v>849</v>
       </c>
       <c r="K58" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L58" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="L58" s="2" t="s">
-        <v>1058</v>
-      </c>
       <c r="M58" s="2" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1057</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>918</v>
       </c>
@@ -14454,7 +14611,7 @@
         <v>953</v>
       </c>
       <c r="C59" t="s">
-        <v>969</v>
+        <v>1068</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>781</v>
@@ -14463,7 +14620,7 @@
         <v>848</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G59" s="9">
         <v>14</v>
@@ -14471,23 +14628,24 @@
       <c r="H59" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="I59" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="I59" s="2"/>
       <c r="J59" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K59" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L59" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="L59" s="2" t="s">
-        <v>1058</v>
-      </c>
       <c r="M59" s="2" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1057</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>919</v>
       </c>
@@ -14495,7 +14653,7 @@
         <v>954</v>
       </c>
       <c r="C60" t="s">
-        <v>969</v>
+        <v>1069</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>782</v>
@@ -14504,29 +14662,32 @@
         <v>127</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G60" s="9">
         <v>17</v>
       </c>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="H60" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I60" s="2"/>
       <c r="J60" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1053</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>920</v>
       </c>
@@ -14534,7 +14695,7 @@
         <v>955</v>
       </c>
       <c r="C61" t="s">
-        <v>969</v>
+        <v>1070</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>783</v>
@@ -14543,29 +14704,32 @@
         <v>856</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="G61" s="9">
         <v>14.25</v>
       </c>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="H61" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I61" s="2"/>
       <c r="J61" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1053</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>921</v>
       </c>
@@ -14573,7 +14737,7 @@
         <v>951</v>
       </c>
       <c r="C62" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>784</v>
@@ -14582,7 +14746,7 @@
         <v>848</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G62" s="9">
         <v>14.25</v>
@@ -14590,23 +14754,24 @@
       <c r="H62" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="I62" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="I62" s="2"/>
       <c r="J62" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K62" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L62" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="L62" s="2" t="s">
-        <v>1055</v>
-      </c>
       <c r="M62" s="2" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1054</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>922</v>
       </c>
@@ -14614,7 +14779,7 @@
         <v>952</v>
       </c>
       <c r="C63" t="s">
-        <v>969</v>
+        <v>1062</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>785</v>
@@ -14623,31 +14788,32 @@
         <v>849</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="H63" s="30" t="s">
-        <v>958</v>
-      </c>
-      <c r="I63" s="2" t="s">
+      <c r="H63" s="2" t="s">
         <v>849</v>
       </c>
+      <c r="I63" s="30"/>
       <c r="J63" s="2" t="s">
-        <v>1048</v>
+        <v>849</v>
       </c>
       <c r="K63" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L63" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="L63" s="2" t="s">
-        <v>1055</v>
-      </c>
       <c r="M63" s="2" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1054</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>923</v>
       </c>
@@ -14655,7 +14821,7 @@
         <v>953</v>
       </c>
       <c r="C64" t="s">
-        <v>969</v>
+        <v>1063</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>786</v>
@@ -14664,7 +14830,7 @@
         <v>848</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="G64" s="9">
         <v>14</v>
@@ -14672,23 +14838,24 @@
       <c r="H64" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="I64" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="I64" s="2"/>
       <c r="J64" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K64" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L64" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="L64" s="2" t="s">
-        <v>1056</v>
-      </c>
       <c r="M64" s="2" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1055</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>924</v>
       </c>
@@ -14696,7 +14863,7 @@
         <v>954</v>
       </c>
       <c r="C65" t="s">
-        <v>969</v>
+        <v>1064</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>787</v>
@@ -14705,29 +14872,32 @@
         <v>127</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="G65" s="9">
         <v>17</v>
       </c>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="H65" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I65" s="2"/>
       <c r="J65" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1055</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>925</v>
       </c>
@@ -14735,7 +14905,7 @@
         <v>955</v>
       </c>
       <c r="C66" t="s">
-        <v>969</v>
+        <v>1065</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>788</v>
@@ -14744,29 +14914,32 @@
         <v>856</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="G66" s="9">
         <v>14.25</v>
       </c>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="H66" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I66" s="2"/>
       <c r="J66" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>1059</v>
+        <v>1050</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1058</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>926</v>
       </c>
@@ -14774,7 +14947,7 @@
         <v>951</v>
       </c>
       <c r="C67" t="s">
-        <v>969</v>
+        <v>1066</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>789</v>
@@ -14783,7 +14956,7 @@
         <v>848</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="G67" s="9">
         <v>14.25</v>
@@ -14791,23 +14964,24 @@
       <c r="H67" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="I67" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="I67" s="2"/>
       <c r="J67" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K67" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L67" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="L67" s="2" t="s">
-        <v>1060</v>
-      </c>
       <c r="M67" s="2" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1059</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>927</v>
       </c>
@@ -14815,7 +14989,7 @@
         <v>952</v>
       </c>
       <c r="C68" t="s">
-        <v>969</v>
+        <v>1067</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>790</v>
@@ -14824,31 +14998,32 @@
         <v>849</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="H68" s="30" t="s">
-        <v>958</v>
-      </c>
-      <c r="I68" s="2" t="s">
+      <c r="H68" s="2" t="s">
         <v>849</v>
       </c>
+      <c r="I68" s="30"/>
       <c r="J68" s="2" t="s">
-        <v>1048</v>
+        <v>849</v>
       </c>
       <c r="K68" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L68" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="L68" s="2" t="s">
-        <v>1057</v>
-      </c>
       <c r="M68" s="2" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1056</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>928</v>
       </c>
@@ -14856,7 +15031,7 @@
         <v>953</v>
       </c>
       <c r="C69" t="s">
-        <v>969</v>
+        <v>1068</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>791</v>
@@ -14865,7 +15040,7 @@
         <v>848</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="G69" s="9">
         <v>14</v>
@@ -14873,23 +15048,24 @@
       <c r="H69" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="I69" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="I69" s="2"/>
       <c r="J69" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K69" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L69" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="L69" s="2" t="s">
-        <v>1057</v>
-      </c>
       <c r="M69" s="2" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1056</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>929</v>
       </c>
@@ -14897,7 +15073,7 @@
         <v>954</v>
       </c>
       <c r="C70" t="s">
-        <v>969</v>
+        <v>1069</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>792</v>
@@ -14906,29 +15082,32 @@
         <v>127</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="G70" s="9">
         <v>17</v>
       </c>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="H70" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I70" s="2"/>
       <c r="J70" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1057</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>930</v>
       </c>
@@ -14936,7 +15115,7 @@
         <v>955</v>
       </c>
       <c r="C71" t="s">
-        <v>969</v>
+        <v>1070</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>793</v>
@@ -14945,29 +15124,32 @@
         <v>856</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="G71" s="9">
         <v>14.25</v>
       </c>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="H71" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I71" s="2"/>
       <c r="J71" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1057</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>931</v>
       </c>
@@ -14975,7 +15157,7 @@
         <v>951</v>
       </c>
       <c r="C72" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>794</v>
@@ -14984,7 +15166,7 @@
         <v>848</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="G72" s="9">
         <v>14.25</v>
@@ -14992,23 +15174,24 @@
       <c r="H72" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="I72" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="I72" s="2"/>
       <c r="J72" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K72" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L72" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="L72" s="2" t="s">
-        <v>1059</v>
-      </c>
       <c r="M72" s="2" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1058</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>932</v>
       </c>
@@ -15016,7 +15199,7 @@
         <v>952</v>
       </c>
       <c r="C73" t="s">
-        <v>969</v>
+        <v>1062</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>795</v>
@@ -15025,31 +15208,32 @@
         <v>849</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="H73" s="30" t="s">
-        <v>958</v>
-      </c>
-      <c r="I73" s="2" t="s">
+      <c r="H73" s="2" t="s">
         <v>849</v>
       </c>
+      <c r="I73" s="30"/>
       <c r="J73" s="2" t="s">
-        <v>1048</v>
+        <v>849</v>
       </c>
       <c r="K73" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L73" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="L73" s="2" t="s">
-        <v>1060</v>
-      </c>
       <c r="M73" s="2" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1059</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>933</v>
       </c>
@@ -15057,7 +15241,7 @@
         <v>951</v>
       </c>
       <c r="C74" t="s">
-        <v>969</v>
+        <v>1063</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>796</v>
@@ -15066,25 +15250,28 @@
         <v>949</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="G74" s="9">
         <v>15</v>
       </c>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="H74" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I74" s="2"/>
       <c r="J74" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="K74" s="2"/>
+        <v>959</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>1046</v>
+      </c>
       <c r="L74" s="2"/>
-      <c r="M74" s="1" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M74" s="2"/>
+      <c r="N74" s="1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>934</v>
       </c>
@@ -15092,7 +15279,7 @@
         <v>953</v>
       </c>
       <c r="C75" t="s">
-        <v>969</v>
+        <v>1064</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>797</v>
@@ -15101,29 +15288,32 @@
         <v>949</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="G75" s="9">
         <v>15</v>
       </c>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="H75" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I75" s="2"/>
       <c r="J75" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1057</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>935</v>
       </c>
@@ -15131,7 +15321,7 @@
         <v>953</v>
       </c>
       <c r="C76" t="s">
-        <v>969</v>
+        <v>1065</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>798</v>
@@ -15140,29 +15330,32 @@
         <v>949</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="G76" s="9">
         <v>15</v>
       </c>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="H76" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I76" s="2"/>
       <c r="J76" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1057</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>936</v>
       </c>
@@ -15170,7 +15363,7 @@
         <v>953</v>
       </c>
       <c r="C77" t="s">
-        <v>969</v>
+        <v>1066</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>799</v>
@@ -15179,29 +15372,32 @@
         <v>949</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="G77" s="9">
         <v>15</v>
       </c>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="H77" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I77" s="2"/>
       <c r="J77" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1057</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>937</v>
       </c>
@@ -15209,7 +15405,7 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>969</v>
+        <v>1067</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>800</v>
@@ -15218,30 +15414,33 @@
         <v>949</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="G78" s="9">
         <v>15</v>
       </c>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2" t="s">
-        <v>960</v>
-      </c>
+      <c r="H78" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I78" s="2"/>
       <c r="J78" s="2" t="s">
-        <v>1048</v>
+        <v>959</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L79" s="2"/>
+        <v>1057</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M79" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data Files/Test Data.xlsx
+++ b/Data Files/Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arcadier\git\Trillia\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB878271-8276-4BF7-8E68-DABD85BBF80A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1876248-D551-4CB5-8B70-55CBFC2E2B71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2581" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2581" uniqueCount="1138">
   <si>
     <t>CategoryNametext</t>
   </si>
@@ -3250,6 +3250,207 @@
   </si>
   <si>
     <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item10.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item11.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item12.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item13.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item14.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item15.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item16.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item17.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item18.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item19.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item20.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item21.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item22.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item23.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item24.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item25.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item26.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item27.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item28.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item29.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item30.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item31.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item32.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item33.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item34.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item35.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item36.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item37.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item38.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item39.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item40.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item41.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item42.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item43.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item44.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item45.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item46.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item47.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item48.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item49.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item50.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item51.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item52.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item53.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item54.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item55.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item56.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item57.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item58.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item59.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item60.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item61.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item62.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item63.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item64.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item65.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item66.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item67.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item68.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item69.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item70.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item71.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item72.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item73.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item74.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item75.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item76.jpg</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item77.jpg</t>
   </si>
 </sst>
 </file>
@@ -12162,8 +12363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337AF865-08E8-4C8C-A074-848D6C202917}">
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12651,7 +12852,7 @@
         <v>951</v>
       </c>
       <c r="C12" t="s">
-        <v>968</v>
+        <v>1071</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>734</v>
@@ -12693,7 +12894,7 @@
         <v>952</v>
       </c>
       <c r="C13" t="s">
-        <v>1062</v>
+        <v>1072</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>735</v>
@@ -12735,7 +12936,7 @@
         <v>953</v>
       </c>
       <c r="C14" t="s">
-        <v>1063</v>
+        <v>1073</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>736</v>
@@ -12777,7 +12978,7 @@
         <v>954</v>
       </c>
       <c r="C15" t="s">
-        <v>1064</v>
+        <v>1074</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>737</v>
@@ -12819,7 +13020,7 @@
         <v>955</v>
       </c>
       <c r="C16" t="s">
-        <v>1065</v>
+        <v>1075</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>738</v>
@@ -12861,7 +13062,7 @@
         <v>951</v>
       </c>
       <c r="C17" t="s">
-        <v>1066</v>
+        <v>1076</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>739</v>
@@ -12903,7 +13104,7 @@
         <v>952</v>
       </c>
       <c r="C18" t="s">
-        <v>1067</v>
+        <v>1077</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>740</v>
@@ -12945,7 +13146,7 @@
         <v>953</v>
       </c>
       <c r="C19" t="s">
-        <v>1068</v>
+        <v>1078</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>741</v>
@@ -12987,7 +13188,7 @@
         <v>954</v>
       </c>
       <c r="C20" t="s">
-        <v>1069</v>
+        <v>1079</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>742</v>
@@ -13031,7 +13232,7 @@
         <v>955</v>
       </c>
       <c r="C21" t="s">
-        <v>1070</v>
+        <v>1080</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>743</v>
@@ -13075,7 +13276,7 @@
         <v>951</v>
       </c>
       <c r="C22" t="s">
-        <v>968</v>
+        <v>1081</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>744</v>
@@ -13117,7 +13318,7 @@
         <v>952</v>
       </c>
       <c r="C23" t="s">
-        <v>1062</v>
+        <v>1082</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>745</v>
@@ -13161,7 +13362,7 @@
         <v>953</v>
       </c>
       <c r="C24" t="s">
-        <v>1063</v>
+        <v>1083</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>746</v>
@@ -13203,7 +13404,7 @@
         <v>954</v>
       </c>
       <c r="C25" t="s">
-        <v>1064</v>
+        <v>1084</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>747</v>
@@ -13247,7 +13448,7 @@
         <v>955</v>
       </c>
       <c r="C26" t="s">
-        <v>1065</v>
+        <v>1085</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>748</v>
@@ -13291,7 +13492,7 @@
         <v>951</v>
       </c>
       <c r="C27" t="s">
-        <v>1066</v>
+        <v>1086</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>749</v>
@@ -13333,7 +13534,7 @@
         <v>952</v>
       </c>
       <c r="C28" t="s">
-        <v>1067</v>
+        <v>1087</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>750</v>
@@ -13377,7 +13578,7 @@
         <v>953</v>
       </c>
       <c r="C29" t="s">
-        <v>1068</v>
+        <v>1088</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>751</v>
@@ -13419,7 +13620,7 @@
         <v>954</v>
       </c>
       <c r="C30" t="s">
-        <v>1069</v>
+        <v>1089</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>752</v>
@@ -13463,7 +13664,7 @@
         <v>955</v>
       </c>
       <c r="C31" t="s">
-        <v>1070</v>
+        <v>1090</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>753</v>
@@ -13507,7 +13708,7 @@
         <v>951</v>
       </c>
       <c r="C32" t="s">
-        <v>968</v>
+        <v>1091</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>754</v>
@@ -13549,7 +13750,7 @@
         <v>952</v>
       </c>
       <c r="C33" t="s">
-        <v>1062</v>
+        <v>1092</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>755</v>
@@ -13593,7 +13794,7 @@
         <v>953</v>
       </c>
       <c r="C34" t="s">
-        <v>1063</v>
+        <v>1093</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>756</v>
@@ -13635,7 +13836,7 @@
         <v>954</v>
       </c>
       <c r="C35" t="s">
-        <v>1064</v>
+        <v>1094</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>757</v>
@@ -13679,7 +13880,7 @@
         <v>955</v>
       </c>
       <c r="C36" t="s">
-        <v>1065</v>
+        <v>1095</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>758</v>
@@ -13723,7 +13924,7 @@
         <v>951</v>
       </c>
       <c r="C37" t="s">
-        <v>1066</v>
+        <v>1096</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>759</v>
@@ -13765,7 +13966,7 @@
         <v>952</v>
       </c>
       <c r="C38" t="s">
-        <v>1067</v>
+        <v>1097</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>760</v>
@@ -13805,7 +14006,7 @@
         <v>953</v>
       </c>
       <c r="C39" t="s">
-        <v>1068</v>
+        <v>1098</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>761</v>
@@ -13845,7 +14046,7 @@
         <v>954</v>
       </c>
       <c r="C40" t="s">
-        <v>1069</v>
+        <v>1099</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>762</v>
@@ -13885,7 +14086,7 @@
         <v>955</v>
       </c>
       <c r="C41" t="s">
-        <v>1070</v>
+        <v>1100</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>763</v>
@@ -13925,7 +14126,7 @@
         <v>951</v>
       </c>
       <c r="C42" t="s">
-        <v>968</v>
+        <v>1101</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>764</v>
@@ -13965,7 +14166,7 @@
         <v>952</v>
       </c>
       <c r="C43" t="s">
-        <v>1062</v>
+        <v>1102</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>765</v>
@@ -14005,7 +14206,7 @@
         <v>953</v>
       </c>
       <c r="C44" t="s">
-        <v>1063</v>
+        <v>1103</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>766</v>
@@ -14045,7 +14246,7 @@
         <v>954</v>
       </c>
       <c r="C45" t="s">
-        <v>1064</v>
+        <v>1104</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>767</v>
@@ -14085,7 +14286,7 @@
         <v>955</v>
       </c>
       <c r="C46" t="s">
-        <v>1065</v>
+        <v>1105</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>768</v>
@@ -14125,7 +14326,7 @@
         <v>951</v>
       </c>
       <c r="C47" t="s">
-        <v>1066</v>
+        <v>1106</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>769</v>
@@ -14165,7 +14366,7 @@
         <v>952</v>
       </c>
       <c r="C48" t="s">
-        <v>1067</v>
+        <v>1107</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>770</v>
@@ -14205,7 +14406,7 @@
         <v>953</v>
       </c>
       <c r="C49" t="s">
-        <v>1068</v>
+        <v>1108</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>771</v>
@@ -14245,7 +14446,7 @@
         <v>954</v>
       </c>
       <c r="C50" t="s">
-        <v>1069</v>
+        <v>1109</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>772</v>
@@ -14285,7 +14486,7 @@
         <v>955</v>
       </c>
       <c r="C51" t="s">
-        <v>1070</v>
+        <v>1110</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>773</v>
@@ -14325,7 +14526,7 @@
         <v>951</v>
       </c>
       <c r="C52" t="s">
-        <v>968</v>
+        <v>1111</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>774</v>
@@ -14365,7 +14566,7 @@
         <v>952</v>
       </c>
       <c r="C53" t="s">
-        <v>1062</v>
+        <v>1112</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>775</v>
@@ -14405,7 +14606,7 @@
         <v>953</v>
       </c>
       <c r="C54" t="s">
-        <v>1063</v>
+        <v>1113</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>776</v>
@@ -14445,7 +14646,7 @@
         <v>954</v>
       </c>
       <c r="C55" t="s">
-        <v>1064</v>
+        <v>1114</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>777</v>
@@ -14485,7 +14686,7 @@
         <v>955</v>
       </c>
       <c r="C56" t="s">
-        <v>1065</v>
+        <v>1115</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>778</v>
@@ -14527,7 +14728,7 @@
         <v>951</v>
       </c>
       <c r="C57" t="s">
-        <v>1066</v>
+        <v>1116</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>779</v>
@@ -14569,7 +14770,7 @@
         <v>952</v>
       </c>
       <c r="C58" t="s">
-        <v>1067</v>
+        <v>1117</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>780</v>
@@ -14611,7 +14812,7 @@
         <v>953</v>
       </c>
       <c r="C59" t="s">
-        <v>1068</v>
+        <v>1118</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>781</v>
@@ -14653,7 +14854,7 @@
         <v>954</v>
       </c>
       <c r="C60" t="s">
-        <v>1069</v>
+        <v>1119</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>782</v>
@@ -14695,7 +14896,7 @@
         <v>955</v>
       </c>
       <c r="C61" t="s">
-        <v>1070</v>
+        <v>1120</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>783</v>
@@ -14737,7 +14938,7 @@
         <v>951</v>
       </c>
       <c r="C62" t="s">
-        <v>968</v>
+        <v>1121</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>784</v>
@@ -14779,7 +14980,7 @@
         <v>952</v>
       </c>
       <c r="C63" t="s">
-        <v>1062</v>
+        <v>1122</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>785</v>
@@ -14821,7 +15022,7 @@
         <v>953</v>
       </c>
       <c r="C64" t="s">
-        <v>1063</v>
+        <v>1123</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>786</v>
@@ -14863,7 +15064,7 @@
         <v>954</v>
       </c>
       <c r="C65" t="s">
-        <v>1064</v>
+        <v>1124</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>787</v>
@@ -14905,7 +15106,7 @@
         <v>955</v>
       </c>
       <c r="C66" t="s">
-        <v>1065</v>
+        <v>1125</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>788</v>
@@ -14947,7 +15148,7 @@
         <v>951</v>
       </c>
       <c r="C67" t="s">
-        <v>1066</v>
+        <v>1126</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>789</v>
@@ -14989,7 +15190,7 @@
         <v>952</v>
       </c>
       <c r="C68" t="s">
-        <v>1067</v>
+        <v>1127</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>790</v>
@@ -15031,7 +15232,7 @@
         <v>953</v>
       </c>
       <c r="C69" t="s">
-        <v>1068</v>
+        <v>1128</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>791</v>
@@ -15073,7 +15274,7 @@
         <v>954</v>
       </c>
       <c r="C70" t="s">
-        <v>1069</v>
+        <v>1129</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>792</v>
@@ -15115,7 +15316,7 @@
         <v>955</v>
       </c>
       <c r="C71" t="s">
-        <v>1070</v>
+        <v>1130</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>793</v>
@@ -15157,7 +15358,7 @@
         <v>951</v>
       </c>
       <c r="C72" t="s">
-        <v>968</v>
+        <v>1131</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>794</v>
@@ -15199,7 +15400,7 @@
         <v>952</v>
       </c>
       <c r="C73" t="s">
-        <v>1062</v>
+        <v>1132</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>795</v>
@@ -15241,7 +15442,7 @@
         <v>951</v>
       </c>
       <c r="C74" t="s">
-        <v>1063</v>
+        <v>1133</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>796</v>
@@ -15279,7 +15480,7 @@
         <v>953</v>
       </c>
       <c r="C75" t="s">
-        <v>1064</v>
+        <v>1134</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>797</v>
@@ -15321,7 +15522,7 @@
         <v>953</v>
       </c>
       <c r="C76" t="s">
-        <v>1065</v>
+        <v>1135</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>798</v>
@@ -15363,7 +15564,7 @@
         <v>953</v>
       </c>
       <c r="C77" t="s">
-        <v>1066</v>
+        <v>1136</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>799</v>
@@ -15405,7 +15606,7 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>1067</v>
+        <v>1137</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>800</v>

--- a/Data Files/Test Data.xlsx
+++ b/Data Files/Test Data.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arcadier\git\Trillia\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB878271-8276-4BF7-8E68-DABD85BBF80A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E36BF28-2DDF-42D6-BC04-BD8467F4368A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{6DADBD4C-F1D0-4CA8-9C8D-D312492A8BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin Category" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,11 @@
     <sheet name="Custom Fields" sheetId="6" r:id="rId6"/>
     <sheet name="AllCustomField" sheetId="7" r:id="rId7"/>
     <sheet name="Item List" sheetId="9" r:id="rId8"/>
+    <sheet name="Sample" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2581" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2583" uniqueCount="1073">
   <si>
     <t>CategoryNametext</t>
   </si>
@@ -3250,13 +3251,20 @@
   </si>
   <si>
     <t>C:\\Users\\Arcadier\\git\\Trillia\\Images\\UN Items\\item10.jpg</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>100.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3837,10 +3845,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="79.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -4974,10 +4982,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="16.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" style="3" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="16.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="20.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -5841,15 +5849,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" style="26" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" style="26" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="26" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="26"/>
+    <col min="1" max="1" customWidth="true" style="26" width="46.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="26" width="29.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="26" width="38.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="26" width="46.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="26" width="14.140625" collapsed="true"/>
+    <col min="6" max="16384" style="26" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>844</v>
       </c>
@@ -6143,16 +6151,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="23" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7571,14 +7579,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="15" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -8678,11 +8686,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="24.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:26" ht="64.5" x14ac:dyDescent="0.25">
@@ -11138,10 +11146,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -12162,21 +12170,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337AF865-08E8-4C8C-A074-848D6C202917}">
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="76.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="76.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="17.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -15446,4 +15454,24 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E03EA7-0AF0-45C5-8798-242106C9C48B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2">
+      <c r="B2" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>